--- a/IMED/DPP_Revised/dframes.xlsx
+++ b/IMED/DPP_Revised/dframes.xlsx
@@ -6047,7 +6047,7 @@
         <v>4</v>
       </c>
       <c r="F99">
-        <v>41.87</v>
+        <v>47.87</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -13618,31 +13618,31 @@
         <v>119</v>
       </c>
       <c r="K58">
-        <v>170.8644</v>
+        <v>171.7044</v>
       </c>
       <c r="L58">
-        <v>1049.5956</v>
+        <v>1054.7556</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
-        <v>1220.46</v>
+        <v>1226.46</v>
       </c>
       <c r="O58">
         <v>0</v>
       </c>
       <c r="P58">
-        <v>19.5444</v>
+        <v>20.3844</v>
       </c>
       <c r="Q58">
-        <v>-60.08439999999996</v>
+        <v>-54.92440000000011</v>
       </c>
       <c r="R58">
         <v>0</v>
       </c>
       <c r="S58">
-        <v>-40.53999999999996</v>
+        <v>-34.54000000000011</v>
       </c>
       <c r="T58">
         <v>58</v>
@@ -13654,7 +13654,7 @@
         <v>58</v>
       </c>
       <c r="W58">
-        <v>10.26</v>
+        <v>10.31</v>
       </c>
       <c r="X58" t="s">
         <v>147</v>
@@ -14157,10 +14157,10 @@
         <v>261.2379999999999</v>
       </c>
       <c r="K65">
-        <v>9315.380200000003</v>
+        <v>9320.540200000007</v>
       </c>
       <c r="L65">
-        <v>12129.8498</v>
+        <v>12124.68979999999</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -14172,10 +14172,10 @@
         <v>0</v>
       </c>
       <c r="P65">
-        <v>7881.080200000003</v>
+        <v>7886.240200000007</v>
       </c>
       <c r="Q65">
-        <v>1611.649799999996</v>
+        <v>1606.489799999992</v>
       </c>
       <c r="R65">
         <v>0</v>
@@ -18505,7 +18505,7 @@
         <v>18386.72</v>
       </c>
       <c r="H57">
-        <v>0.18244</v>
+        <v>0.18243</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -18564,16 +18564,16 @@
         <v>81</v>
       </c>
       <c r="E58">
-        <v>10.26</v>
+        <v>10.31</v>
       </c>
       <c r="F58">
         <v>119</v>
       </c>
       <c r="G58">
-        <v>1220.46</v>
+        <v>1226.46</v>
       </c>
       <c r="H58">
-        <v>0.01211</v>
+        <v>0.01217</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -18594,10 +18594,10 @@
         <v>192.22</v>
       </c>
       <c r="O58">
-        <v>528.6816</v>
+        <v>532.1615999999999</v>
       </c>
       <c r="P58">
-        <v>382.8384</v>
+        <v>385.3584</v>
       </c>
       <c r="Q58">
         <v>0.58</v>
@@ -18612,7 +18612,7 @@
         <v>308.94</v>
       </c>
       <c r="U58">
-        <v>911.52</v>
+        <v>917.52</v>
       </c>
       <c r="V58">
         <v>0.902</v>
@@ -18641,7 +18641,7 @@
         <v>1172.62</v>
       </c>
       <c r="H59">
-        <v>0.01164</v>
+        <v>0.01163</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -18709,7 +18709,7 @@
         <v>18421.37</v>
       </c>
       <c r="H60">
-        <v>0.18279</v>
+        <v>0.18278</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -18845,7 +18845,7 @@
         <v>3398.889999999999</v>
       </c>
       <c r="H62">
-        <v>0.03373</v>
+        <v>0.03372</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -19049,7 +19049,7 @@
         <v>21445.23</v>
       </c>
       <c r="H65">
-        <v>0.21275</v>
+        <v>0.2127300000000001</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -24452,52 +24452,52 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>528.6816</v>
+        <v>532.1615999999999</v>
       </c>
       <c r="N58">
-        <v>74.01542400000001</v>
+        <v>74.502624</v>
       </c>
       <c r="O58">
-        <v>454.666176</v>
+        <v>457.6589759999999</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>382.8384</v>
+        <v>385.3584</v>
       </c>
       <c r="R58">
-        <v>53.597376</v>
+        <v>53.950176</v>
       </c>
       <c r="S58">
-        <v>329.241024</v>
+        <v>331.408224</v>
       </c>
       <c r="T58">
         <v>0</v>
       </c>
       <c r="U58">
-        <v>1220.46</v>
+        <v>1226.46</v>
       </c>
       <c r="V58">
-        <v>1028.24</v>
+        <v>1034.24</v>
       </c>
       <c r="W58">
-        <v>143.9528</v>
+        <v>144.7928</v>
       </c>
       <c r="X58">
-        <v>884.2872</v>
+        <v>889.4471999999998</v>
       </c>
       <c r="Y58">
         <v>0</v>
       </c>
       <c r="Z58">
-        <v>1028.24</v>
+        <v>1034.24</v>
       </c>
       <c r="AA58">
-        <v>192.22</v>
+        <v>192.2200000000003</v>
       </c>
       <c r="AB58">
-        <v>192.22</v>
+        <v>192.2200000000003</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -25776,10 +25776,10 @@
         <v>482</v>
       </c>
       <c r="C8">
-        <v>23490.92944</v>
+        <v>23494.40944</v>
       </c>
       <c r="D8">
-        <v>18935.00144838</v>
+        <v>18938.14040838</v>
       </c>
       <c r="E8">
         <v>14</v>
@@ -25796,10 +25796,10 @@
         <v>483</v>
       </c>
       <c r="C9">
-        <v>17970.18355999999</v>
+        <v>17972.70355999999</v>
       </c>
       <c r="D9">
-        <v>14492.70125162</v>
+        <v>14494.97429162</v>
       </c>
       <c r="E9">
         <v>15</v>
@@ -26019,10 +26019,10 @@
         <v>53727</v>
       </c>
       <c r="F9">
-        <v>62141.8</v>
+        <v>62147.8</v>
       </c>
       <c r="G9">
-        <v>8414.800000000003</v>
+        <v>8420.800000000003</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -34165,76 +34165,76 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>528.6816</v>
+        <v>532.1615999999999</v>
       </c>
       <c r="J58">
-        <v>75.65433696000001</v>
+        <v>76.15232495999999</v>
       </c>
       <c r="K58">
-        <v>453.02726304</v>
+        <v>456.0092750399999</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
       <c r="M58">
-        <v>382.8384</v>
+        <v>385.3584</v>
       </c>
       <c r="N58">
-        <v>54.78417504</v>
+        <v>55.14478704</v>
       </c>
       <c r="O58">
-        <v>328.05422496</v>
+        <v>330.21361296</v>
       </c>
       <c r="P58">
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>1220.46</v>
+        <v>1226.46</v>
       </c>
       <c r="R58">
-        <v>170.8644</v>
+        <v>171.7044</v>
       </c>
       <c r="S58">
-        <v>1049.5956</v>
+        <v>1054.7556</v>
       </c>
       <c r="T58">
         <v>0</v>
       </c>
       <c r="U58">
-        <v>911.52</v>
+        <v>917.52</v>
       </c>
       <c r="V58">
-        <v>130.4444</v>
+        <v>131.2844</v>
       </c>
       <c r="W58">
-        <v>781.0756000000001</v>
+        <v>786.2356</v>
       </c>
       <c r="X58">
         <v>0</v>
       </c>
       <c r="Y58">
-        <v>1220.46</v>
+        <v>1226.46</v>
       </c>
       <c r="Z58">
-        <v>1220.46</v>
+        <v>1226.46</v>
       </c>
       <c r="AA58">
-        <v>170.858512</v>
+        <v>171.717112</v>
       </c>
       <c r="AB58">
-        <v>1049.601488</v>
+        <v>1054.742888</v>
       </c>
       <c r="AC58">
         <v>0</v>
       </c>
       <c r="AD58">
-        <v>1220.46</v>
+        <v>1226.46</v>
       </c>
       <c r="AE58">
         <v>0</v>
       </c>
       <c r="AF58">
-        <v>0</v>
+        <v>2.273736754432321E-13</v>
       </c>
     </row>
     <row r="59" spans="1:32">
@@ -34854,10 +34854,10 @@
         <v>7188.844799999999</v>
       </c>
       <c r="J65">
-        <v>4738.88649216</v>
+        <v>4741.762030079999</v>
       </c>
       <c r="K65">
-        <v>2449.95830784</v>
+        <v>2447.082769919999</v>
       </c>
       <c r="L65">
         <v>0</v>
@@ -34866,10 +34866,10 @@
         <v>5205.7152</v>
       </c>
       <c r="N65">
-        <v>3431.60745984</v>
+        <v>3433.689745919999</v>
       </c>
       <c r="O65">
-        <v>1774.10774016</v>
+        <v>1772.02545408</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -34878,10 +34878,10 @@
         <v>21445.23</v>
       </c>
       <c r="R65">
-        <v>9315.380200000003</v>
+        <v>9320.540200000007</v>
       </c>
       <c r="S65">
-        <v>12129.8498</v>
+        <v>12124.68979999999</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -34890,10 +34890,10 @@
         <v>12394.56</v>
       </c>
       <c r="V65">
-        <v>8170.910200000003</v>
+        <v>8176.070200000006</v>
       </c>
       <c r="W65">
-        <v>4223.6498</v>
+        <v>4218.489799999989</v>
       </c>
       <c r="X65">
         <v>0</v>
@@ -34905,10 +34905,10 @@
         <v>21445.23</v>
       </c>
       <c r="AA65">
-        <v>9314.963952</v>
+        <v>9319.921775999999</v>
       </c>
       <c r="AB65">
-        <v>12130.266048</v>
+        <v>12125.308224</v>
       </c>
       <c r="AC65">
         <v>0</v>
@@ -34920,7 +34920,7 @@
         <v>0</v>
       </c>
       <c r="AF65">
-        <v>0</v>
+        <v>3.637978807091713E-12</v>
       </c>
     </row>
     <row r="66" spans="1:32">
@@ -38126,7 +38126,7 @@
         <v>239</v>
       </c>
       <c r="D8">
-        <v>41.87</v>
+        <v>47.87</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -45286,7 +45286,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>41.87</v>
+        <v>47.87</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -47859,16 +47859,16 @@
         <v>119</v>
       </c>
       <c r="G2">
-        <v>170.8644</v>
+        <v>171.7044</v>
       </c>
       <c r="H2">
-        <v>1049.5956</v>
+        <v>1054.7556</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1220.46</v>
+        <v>1226.46</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -48553,19 +48553,19 @@
         <v>119</v>
       </c>
       <c r="G2">
-        <v>170.8644</v>
+        <v>171.7044</v>
       </c>
       <c r="H2">
-        <v>1049.5956</v>
+        <v>1054.7556</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1220.46</v>
+        <v>1226.46</v>
       </c>
       <c r="K2">
-        <v>10.25596638655462</v>
+        <v>10.30638655462185</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -49534,7 +49534,7 @@
         <v>252</v>
       </c>
       <c r="D2">
-        <v>794.1899999999999</v>
+        <v>800.1899999999999</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -49585,7 +49585,7 @@
         <v>120</v>
       </c>
       <c r="U2">
-        <v>35072.92</v>
+        <v>35078.92</v>
       </c>
       <c r="V2">
         <v>2</v>

--- a/IMED/DPP_Revised/dframes.xlsx
+++ b/IMED/DPP_Revised/dframes.xlsx
@@ -23,14 +23,13 @@
     <sheet name="Distribution_of_cost" sheetId="14" r:id="rId14"/>
     <sheet name="quantity_comaprision" sheetId="15" r:id="rId15"/>
     <sheet name="Annex-9_detail_phasing_modified" sheetId="16" r:id="rId16"/>
-    <sheet name="Old_New_PP" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3098" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="519">
   <si>
     <t>Package Name</t>
   </si>
@@ -1653,347 +1652,6 @@
   </si>
   <si>
     <t>Remaining_DPA</t>
-  </si>
-  <si>
-    <t>Quantity_Old</t>
-  </si>
-  <si>
-    <t>Cost_Old</t>
-  </si>
-  <si>
-    <t>PackageNo</t>
-  </si>
-  <si>
-    <t>Structure_Code_Old</t>
-  </si>
-  <si>
-    <t>Structure_Code_New</t>
-  </si>
-  <si>
-    <t>Quantity_New</t>
-  </si>
-  <si>
-    <t>Cost_New</t>
-  </si>
-  <si>
-    <t>Structure_Change</t>
-  </si>
-  <si>
-    <t>Change Details</t>
-  </si>
-  <si>
-    <t>Change_of_Quantity</t>
-  </si>
-  <si>
-    <t>Change_of_Cost</t>
-  </si>
-  <si>
-    <t>Poblems</t>
-  </si>
-  <si>
-    <t>Earth Volume Required</t>
-  </si>
-  <si>
-    <t>R-sectioning of Full Embankment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replacement of Reg. Gates &amp; other related works </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-excavation of Khal (Rehab.) </t>
-  </si>
-  <si>
-    <t>Cons. of Submersible Embankment</t>
-  </si>
-  <si>
-    <t>Construction of New Regulators 
-2 vent (1.50mx1.80m)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-excavation of Khal (New Haor) </t>
-  </si>
-  <si>
-    <t>Construction of New Regulator
-1 vent , (1.50 x 1.80 ) m</t>
-  </si>
-  <si>
-    <t>Construction of New Regulators
-1 vent , (1.50 x 1.80 ) m</t>
-  </si>
-  <si>
-    <t>Construction of New Regulator
-4 vent , (1.50 x 1.80 ) m</t>
-  </si>
-  <si>
-    <t>Construction of New Regulator
-3 vent , (1.50 x 1.80 ) m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-excavation of Khal
-</t>
-  </si>
-  <si>
-    <t>Construction of New Regulators/Causeway
-14 vent , (1.50 x 1.80 ) m (Digha River)</t>
-  </si>
-  <si>
-    <t>Cons. of 6.0 m width Causeway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Causeway </t>
-  </si>
-  <si>
-    <t>Construction of New Regulators
-2 vent , (1.50 x 1.80 ) m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Box Drainage Outlet </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construction of New Regulators
-1 vent , (1.50 x 1.80 ) m </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construction of New Regulators
-2 vent , (1.50 x 1.80 ) m </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construction of New Regulators
-3 vent , (1.50 x 1.80 ) m </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construction of New Regulators
-4 vent , (1.50 x 1.80 ) m </t>
-  </si>
-  <si>
-    <t>Cons. of Box Drainage Outlet</t>
-  </si>
-  <si>
-    <t>Cons. of Irrigation Inlet</t>
-  </si>
-  <si>
-    <t>Cons. of 4.0 m width Causeway</t>
-  </si>
-  <si>
-    <t>Cons. of 6.6 m width Causeway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-excavation of River by Dredger/mechanical (Berachapra 15.82km + Ataplal 7.113km)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cons. of 4.0 m width Causeway </t>
-  </si>
-  <si>
-    <t>Const. of Bridge 15.0m(Boro Haor Nikli)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cons. of Irrigation Inlet </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rehab. Regulators </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construction of New Regulators
-5 vent , (1.50 x 1.80 ) m </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-excavation of Khal (9.20Km) and River (1.80 Km) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-excavation of Khal (New) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Construction of New Regulators
-6 vent , (1.50 x 1.80 ) m </t>
-  </si>
-  <si>
-    <t>Construction of WMG Training Office at KISH/PWoregonj, Netrokona, Sunamgonj &amp; Hobigonj district.</t>
-  </si>
-  <si>
-    <t>O &amp; M during Construction at KISH/PWoregonj district.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cons. of Submersible Embankment With Slope </t>
-  </si>
-  <si>
-    <t>Rehab. of submersible Embankment (Resection 7.00 km &amp; Construction 7.20 km)</t>
-  </si>
-  <si>
-    <t>Re-Installation of Regulator/Causeway (one no. 2 vent 1.50mx1.80m &amp; one no. 4.0m wide)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-excavation of Khal/River (Rehab. Khal 3.50km &amp; River 17.862km) </t>
-  </si>
-  <si>
-    <t>Rehab. of submersible Embankment (Resection-Kairadhala-11.0km &amp; Aralia-16.0km and Construction- Aralia-9.33 km)</t>
-  </si>
-  <si>
-    <t>Replacement of Regulator Gates &amp; other related works (Kairadhala-9 nos. &amp; Aralia-5 nos.)</t>
-  </si>
-  <si>
-    <t>Re-Installation of Regulator/Causeway (one no. 3.0m wide &amp; one no. 6.0m wide for Aralia)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-excavation of Khal (Rehab. Kairdhala 7.0km &amp; Aralia Beel 7.0km) </t>
-  </si>
-  <si>
-    <t>Rehab. of full Embankment (Re-section)</t>
-  </si>
-  <si>
-    <t>Rehab. of submersible Embankment (Re-section)</t>
-  </si>
-  <si>
-    <t>Re-Installation of Regulator/Causeway (two nos. 3.0m wide)</t>
-  </si>
-  <si>
-    <t>Replacement of Regulator Gates &amp; other related works</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cons. of Submersible Embankment </t>
-  </si>
-  <si>
-    <t>Construction of New Regulator 4 vent (1.50mx1.80m)</t>
-  </si>
-  <si>
-    <t>Construction of New Regulators 1 vent (1.50mx1.80m)</t>
-  </si>
-  <si>
-    <t>Construction of New Regulator 2 vent (1.50mx1.80m)</t>
-  </si>
-  <si>
-    <t>Construction of 4.0m wide Causeway</t>
-  </si>
-  <si>
-    <t>Construction of 6.0m wide Causeway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-excavation of Khal  (New Haor) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-excavation of River (New Haor) </t>
-  </si>
-  <si>
-    <t>Rehabilitation of existing regulator</t>
-  </si>
-  <si>
-    <t>O &amp; M during Construction.</t>
-  </si>
-  <si>
-    <t>Re-sectioning of Full Embankment (Dampara-35.52+Singer Beel-10.69)</t>
-  </si>
-  <si>
-    <t>Re-excavation of Khal (Rehab.)</t>
-  </si>
-  <si>
-    <t>Re-sectioning of Full Embankment (Kangsha)</t>
-  </si>
-  <si>
-    <t>Re-sectioning of Submersible Embankment (Singer beel)</t>
-  </si>
-  <si>
-    <t>Re-Installation of Regulator 5 vent (1.50mx1.80m) (Dampara)</t>
-  </si>
-  <si>
-    <t>Replacement of Reg. Gates and other related works</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-sectioning of Submersible Embankment </t>
-  </si>
-  <si>
-    <t>Re-excavation of Khal (Rehab.) (including 7.338 km river dredging)</t>
-  </si>
-  <si>
-    <t>Construction of New Regulators 4 vent (1.50mx1.80m)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-excavation of Khal (New) 
-</t>
-  </si>
-  <si>
-    <t>Rehabilitation of existing Regulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-excavation of River (Lower Kongsha River 15.00km &amp; Gunai River 9.00km)
-</t>
-  </si>
-  <si>
-    <t>Construction of New Regulators 2 vent (1.50mx1.80m)</t>
-  </si>
-  <si>
-    <t>Re-excavation of River (New) (Piain River)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-excavation of Khal(New Haor) </t>
-  </si>
-  <si>
-    <t>Construction of New Regulator 3 vent (1.50mx1.80m)</t>
-  </si>
-  <si>
-    <t>Construction of New Regulator 1 vent (1.50mx1.80m)</t>
-  </si>
-  <si>
-    <t>Rehabilitation of Regulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-excavation of Khal (New Haor) 
-</t>
-  </si>
-  <si>
-    <t>Rehab/Replacement of Regulator Gates &amp; other related works</t>
-  </si>
-  <si>
-    <t>no.</t>
-  </si>
-  <si>
-    <t>KISH/PW-08</t>
-  </si>
-  <si>
-    <t>KISH/PW-30
-(Lot-1)</t>
-  </si>
-  <si>
-    <t>KISH/PW-30
-(Lot-2)</t>
-  </si>
-  <si>
-    <t>KISH/PW-33(Lot-1)</t>
-  </si>
-  <si>
-    <t>KISH/PW-33(Lot-2)</t>
-  </si>
-  <si>
-    <t>HOBI/PW-03</t>
-  </si>
-  <si>
-    <t>Netr/PW-01</t>
-  </si>
-  <si>
-    <t>Netr/PW-02</t>
-  </si>
-  <si>
-    <t>Netr/PW-03</t>
-  </si>
-  <si>
-    <t>Netr/PW-04</t>
-  </si>
-  <si>
-    <t>Netr/PW-05</t>
-  </si>
-  <si>
-    <t>Netr/PW-06</t>
-  </si>
-  <si>
-    <t>Netr/PW-07</t>
-  </si>
-  <si>
-    <t>Netr/PW-08</t>
-  </si>
-  <si>
-    <t>SUNM/PW-08</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -35858,8708 +35516,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q164"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="B1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>532</v>
-      </c>
-      <c r="C2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G2">
-        <v>9</v>
-      </c>
-      <c r="H2">
-        <v>9</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>-5</v>
-      </c>
-      <c r="N2">
-        <v>-10</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>533</v>
-      </c>
-      <c r="C3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>32.5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G3">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>16</v>
-      </c>
-      <c r="I3">
-        <v>13</v>
-      </c>
-      <c r="J3">
-        <v>55.55</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>23.05</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>534</v>
-      </c>
-      <c r="C4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>255</v>
-      </c>
-      <c r="F4" t="s">
-        <v>176</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-      <c r="I4">
-        <v>11.551</v>
-      </c>
-      <c r="J4">
-        <v>496.55</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>-13.449</v>
-      </c>
-      <c r="N4">
-        <v>241.55</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>535</v>
-      </c>
-      <c r="C5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5">
-        <v>0.315</v>
-      </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>177</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>11</v>
-      </c>
-      <c r="I5">
-        <v>0.315</v>
-      </c>
-      <c r="J5">
-        <v>15.59</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0.5899999999999999</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>536</v>
-      </c>
-      <c r="C6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>145</v>
-      </c>
-      <c r="F6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>124.01</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>-20.98999999999999</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>537</v>
-      </c>
-      <c r="C7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7">
-        <v>13.295</v>
-      </c>
-      <c r="E7">
-        <v>270</v>
-      </c>
-      <c r="F7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="I7">
-        <v>11.095</v>
-      </c>
-      <c r="J7">
-        <v>210.4</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="N7">
-        <v>-59.59999999999999</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>535</v>
-      </c>
-      <c r="C8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8">
-        <v>10.383</v>
-      </c>
-      <c r="E8">
-        <v>620</v>
-      </c>
-      <c r="F8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G8">
-        <v>11</v>
-      </c>
-      <c r="H8">
-        <v>11</v>
-      </c>
-      <c r="I8">
-        <v>10.383</v>
-      </c>
-      <c r="J8">
-        <v>554.48</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>-65.51999999999998</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>538</v>
-      </c>
-      <c r="C9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>164</v>
-      </c>
-      <c r="F9" t="s">
-        <v>178</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>155.52</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>-8.47999999999999</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>535</v>
-      </c>
-      <c r="C10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10">
-        <v>6.471</v>
-      </c>
-      <c r="E10">
-        <v>260</v>
-      </c>
-      <c r="F10" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10">
-        <v>11</v>
-      </c>
-      <c r="H10">
-        <v>11</v>
-      </c>
-      <c r="I10">
-        <v>6.471</v>
-      </c>
-      <c r="J10">
-        <v>266</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>6</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>539</v>
-      </c>
-      <c r="C11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>205</v>
-      </c>
-      <c r="F11" t="s">
-        <v>179</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11">
-        <v>198</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>-7</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>540</v>
-      </c>
-      <c r="C12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>265</v>
-      </c>
-      <c r="F12" t="s">
-        <v>179</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>256</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>-9</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>535</v>
-      </c>
-      <c r="C13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13">
-        <v>12.214</v>
-      </c>
-      <c r="E13">
-        <v>580</v>
-      </c>
-      <c r="F13" t="s">
-        <v>180</v>
-      </c>
-      <c r="G13">
-        <v>11</v>
-      </c>
-      <c r="H13">
-        <v>11</v>
-      </c>
-      <c r="I13">
-        <v>12.214</v>
-      </c>
-      <c r="J13">
-        <v>580</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>541</v>
-      </c>
-      <c r="C14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>210</v>
-      </c>
-      <c r="F14" t="s">
-        <v>180</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>220</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>10</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>537</v>
-      </c>
-      <c r="C15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D15">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>560</v>
-      </c>
-      <c r="F15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G15">
-        <v>7</v>
-      </c>
-      <c r="H15">
-        <v>7</v>
-      </c>
-      <c r="I15">
-        <v>20</v>
-      </c>
-      <c r="J15">
-        <v>618</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>58</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>540</v>
-      </c>
-      <c r="C16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>252</v>
-      </c>
-      <c r="F16" t="s">
-        <v>181</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>222</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>-30</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>535</v>
-      </c>
-      <c r="C17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17">
-        <v>3.879</v>
-      </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-      <c r="F17" t="s">
-        <v>182</v>
-      </c>
-      <c r="G17">
-        <v>11</v>
-      </c>
-      <c r="H17">
-        <v>11</v>
-      </c>
-      <c r="I17">
-        <v>0.8</v>
-      </c>
-      <c r="J17">
-        <v>23</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>-3.079</v>
-      </c>
-      <c r="N17">
-        <v>-77</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>542</v>
-      </c>
-      <c r="C18" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18">
-        <v>32.406</v>
-      </c>
-      <c r="E18">
-        <v>1000</v>
-      </c>
-      <c r="F18" t="s">
-        <v>182</v>
-      </c>
-      <c r="G18">
-        <v>7</v>
-      </c>
-      <c r="H18">
-        <v>7</v>
-      </c>
-      <c r="I18">
-        <v>25.7</v>
-      </c>
-      <c r="J18">
-        <v>680</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>-6.706</v>
-      </c>
-      <c r="N18">
-        <v>-320</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>543</v>
-      </c>
-      <c r="C19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1127</v>
-      </c>
-      <c r="F19" t="s">
-        <v>610</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>-1</v>
-      </c>
-      <c r="N19">
-        <v>-1127</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>544</v>
-      </c>
-      <c r="C20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>200</v>
-      </c>
-      <c r="F20" t="s">
-        <v>610</v>
-      </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20">
-        <v>5</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>-1</v>
-      </c>
-      <c r="N20">
-        <v>-200</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>539</v>
-      </c>
-      <c r="C21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>327</v>
-      </c>
-      <c r="F21" t="s">
-        <v>183</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>-2</v>
-      </c>
-      <c r="N21">
-        <v>-327</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>545</v>
-      </c>
-      <c r="C22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>183</v>
-      </c>
-      <c r="G22">
-        <v>5</v>
-      </c>
-      <c r="H22">
-        <v>5</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>170</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>170</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>546</v>
-      </c>
-      <c r="C23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>407</v>
-      </c>
-      <c r="F23" t="s">
-        <v>183</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>5</v>
-      </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
-      <c r="J23">
-        <v>475</v>
-      </c>
-      <c r="K23" t="s">
-        <v>625</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>68</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>547</v>
-      </c>
-      <c r="C24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24" t="s">
-        <v>183</v>
-      </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
-      <c r="H24">
-        <v>4</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>70</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
-      <c r="N24">
-        <v>70</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>535</v>
-      </c>
-      <c r="C25" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25">
-        <v>11.98</v>
-      </c>
-      <c r="E25">
-        <v>618</v>
-      </c>
-      <c r="F25" t="s">
-        <v>184</v>
-      </c>
-      <c r="G25">
-        <v>11</v>
-      </c>
-      <c r="H25">
-        <v>11</v>
-      </c>
-      <c r="I25">
-        <v>11.98</v>
-      </c>
-      <c r="J25">
-        <v>618</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>548</v>
-      </c>
-      <c r="C26" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>267</v>
-      </c>
-      <c r="F26" t="s">
-        <v>184</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>150</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>-1</v>
-      </c>
-      <c r="N26">
-        <v>-117</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>545</v>
-      </c>
-      <c r="C27" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>184</v>
-      </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-      <c r="H27">
-        <v>5</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>243</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>243</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>535</v>
-      </c>
-      <c r="C28" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28">
-        <v>10.86</v>
-      </c>
-      <c r="E28">
-        <v>558</v>
-      </c>
-      <c r="F28" t="s">
-        <v>185</v>
-      </c>
-      <c r="G28">
-        <v>11</v>
-      </c>
-      <c r="H28">
-        <v>11</v>
-      </c>
-      <c r="I28">
-        <v>10.86</v>
-      </c>
-      <c r="J28">
-        <v>558</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>549</v>
-      </c>
-      <c r="C29" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>275</v>
-      </c>
-      <c r="F29" t="s">
-        <v>185</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>326.37</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>51.37</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30">
-        <v>10.757</v>
-      </c>
-      <c r="E30">
-        <v>470</v>
-      </c>
-      <c r="F30" t="s">
-        <v>186</v>
-      </c>
-      <c r="G30">
-        <v>7</v>
-      </c>
-      <c r="H30">
-        <v>7</v>
-      </c>
-      <c r="I30">
-        <v>6.857</v>
-      </c>
-      <c r="J30">
-        <v>260</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>-3.899999999999999</v>
-      </c>
-      <c r="N30">
-        <v>-210</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>550</v>
-      </c>
-      <c r="C31" t="s">
-        <v>143</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>277</v>
-      </c>
-      <c r="F31" t="s">
-        <v>186</v>
-      </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-      <c r="H31">
-        <v>3</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>227.49</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>-49.50999999999999</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>551</v>
-      </c>
-      <c r="C32" t="s">
-        <v>143</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>313</v>
-      </c>
-      <c r="F32" t="s">
-        <v>186</v>
-      </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
-      <c r="H32">
-        <v>3</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>303.33</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>-9.670000000000016</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>535</v>
-      </c>
-      <c r="C33" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33">
-        <v>10</v>
-      </c>
-      <c r="E33">
-        <v>700</v>
-      </c>
-      <c r="F33" t="s">
-        <v>187</v>
-      </c>
-      <c r="G33">
-        <v>11</v>
-      </c>
-      <c r="H33">
-        <v>11</v>
-      </c>
-      <c r="I33">
-        <v>10</v>
-      </c>
-      <c r="J33">
-        <v>490</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>-210</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q33">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>550</v>
-      </c>
-      <c r="C34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>270</v>
-      </c>
-      <c r="F34" t="s">
-        <v>187</v>
-      </c>
-      <c r="G34">
-        <v>3</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>235</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>-35</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>549</v>
-      </c>
-      <c r="C35" t="s">
-        <v>143</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>180</v>
-      </c>
-      <c r="F35" t="s">
-        <v>187</v>
-      </c>
-      <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="H35">
-        <v>3</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>175</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>-5</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>535</v>
-      </c>
-      <c r="C36" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36">
-        <v>16.9</v>
-      </c>
-      <c r="E36">
-        <v>800</v>
-      </c>
-      <c r="F36" t="s">
-        <v>188</v>
-      </c>
-      <c r="G36">
-        <v>11</v>
-      </c>
-      <c r="H36">
-        <v>11</v>
-      </c>
-      <c r="I36">
-        <v>16.9</v>
-      </c>
-      <c r="J36">
-        <v>705.4</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>-94.60000000000002</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q36">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>549</v>
-      </c>
-      <c r="C37" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>185</v>
-      </c>
-      <c r="F37" t="s">
-        <v>188</v>
-      </c>
-      <c r="G37">
-        <v>3</v>
-      </c>
-      <c r="H37">
-        <v>3</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>219.6</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>34.59999999999999</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>535</v>
-      </c>
-      <c r="C38" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38">
-        <v>9</v>
-      </c>
-      <c r="E38">
-        <v>715</v>
-      </c>
-      <c r="F38" t="s">
-        <v>189</v>
-      </c>
-      <c r="G38">
-        <v>11</v>
-      </c>
-      <c r="H38">
-        <v>11</v>
-      </c>
-      <c r="I38">
-        <v>9</v>
-      </c>
-      <c r="J38">
-        <v>600</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>-115</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q38">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>549</v>
-      </c>
-      <c r="C39" t="s">
-        <v>143</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>185</v>
-      </c>
-      <c r="F39" t="s">
-        <v>189</v>
-      </c>
-      <c r="G39">
-        <v>3</v>
-      </c>
-      <c r="H39">
-        <v>3</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>-1</v>
-      </c>
-      <c r="N39">
-        <v>-185</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>535</v>
-      </c>
-      <c r="C40" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40">
-        <v>14.12</v>
-      </c>
-      <c r="E40">
-        <v>565</v>
-      </c>
-      <c r="F40" t="s">
-        <v>190</v>
-      </c>
-      <c r="G40">
-        <v>11</v>
-      </c>
-      <c r="H40">
-        <v>11</v>
-      </c>
-      <c r="I40">
-        <v>14.12</v>
-      </c>
-      <c r="J40">
-        <v>531.3</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>-33.70000000000005</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q40">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>549</v>
-      </c>
-      <c r="C41" t="s">
-        <v>143</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>351</v>
-      </c>
-      <c r="F41" t="s">
-        <v>190</v>
-      </c>
-      <c r="G41">
-        <v>3</v>
-      </c>
-      <c r="H41">
-        <v>3</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>404.5</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>53.5</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>535</v>
-      </c>
-      <c r="C42" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42">
-        <v>13.17</v>
-      </c>
-      <c r="E42">
-        <v>655</v>
-      </c>
-      <c r="F42" t="s">
-        <v>191</v>
-      </c>
-      <c r="G42">
-        <v>11</v>
-      </c>
-      <c r="H42">
-        <v>11</v>
-      </c>
-      <c r="I42">
-        <v>13.17</v>
-      </c>
-      <c r="J42">
-        <v>561</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>-94</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q42">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>551</v>
-      </c>
-      <c r="C43" t="s">
-        <v>145</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>311</v>
-      </c>
-      <c r="F43" t="s">
-        <v>191</v>
-      </c>
-      <c r="G43">
-        <v>3</v>
-      </c>
-      <c r="H43">
-        <v>3</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>675</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>364</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>548</v>
-      </c>
-      <c r="C44" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>180</v>
-      </c>
-      <c r="F44" t="s">
-        <v>191</v>
-      </c>
-      <c r="G44">
-        <v>3</v>
-      </c>
-      <c r="H44">
-        <v>3</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>115.24</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>-64.76000000000001</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>552</v>
-      </c>
-      <c r="C45" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45">
-        <v>5</v>
-      </c>
-      <c r="E45">
-        <v>181</v>
-      </c>
-      <c r="F45" t="s">
-        <v>191</v>
-      </c>
-      <c r="G45">
-        <v>4</v>
-      </c>
-      <c r="H45">
-        <v>4</v>
-      </c>
-      <c r="I45">
-        <v>5</v>
-      </c>
-      <c r="J45">
-        <v>177.44</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>-3.560000000000002</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>553</v>
-      </c>
-      <c r="C46" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46">
-        <v>25</v>
-      </c>
-      <c r="E46">
-        <v>260</v>
-      </c>
-      <c r="F46" t="s">
-        <v>191</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>25</v>
-      </c>
-      <c r="J46">
-        <v>274.32</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>14.31999999999999</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" t="s">
-        <v>146</v>
-      </c>
-      <c r="D47">
-        <v>26.035</v>
-      </c>
-      <c r="E47">
-        <v>556</v>
-      </c>
-      <c r="F47" t="s">
-        <v>192</v>
-      </c>
-      <c r="G47">
-        <v>7</v>
-      </c>
-      <c r="H47">
-        <v>7</v>
-      </c>
-      <c r="I47">
-        <v>26.035</v>
-      </c>
-      <c r="J47">
-        <v>615</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>59</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q47">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>554</v>
-      </c>
-      <c r="C48" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48">
-        <v>3</v>
-      </c>
-      <c r="E48">
-        <v>545</v>
-      </c>
-      <c r="F48" t="s">
-        <v>192</v>
-      </c>
-      <c r="G48">
-        <v>5</v>
-      </c>
-      <c r="H48">
-        <v>5</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>537</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>-2</v>
-      </c>
-      <c r="N48">
-        <v>-8</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>555</v>
-      </c>
-      <c r="C49" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>289</v>
-      </c>
-      <c r="F49" t="s">
-        <v>192</v>
-      </c>
-      <c r="G49">
-        <v>5</v>
-      </c>
-      <c r="H49">
-        <v>5</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <v>445</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>156</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>556</v>
-      </c>
-      <c r="C50" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50">
-        <v>22.933</v>
-      </c>
-      <c r="E50">
-        <v>925</v>
-      </c>
-      <c r="F50" t="s">
-        <v>193</v>
-      </c>
-      <c r="G50">
-        <v>7</v>
-      </c>
-      <c r="H50">
-        <v>7</v>
-      </c>
-      <c r="I50">
-        <v>22.933</v>
-      </c>
-      <c r="J50">
-        <v>1065</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>140</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q50">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>557</v>
-      </c>
-      <c r="C51" t="s">
-        <v>145</v>
-      </c>
-      <c r="D51">
-        <v>4</v>
-      </c>
-      <c r="E51">
-        <v>680</v>
-      </c>
-      <c r="F51" t="s">
-        <v>194</v>
-      </c>
-      <c r="G51">
-        <v>5</v>
-      </c>
-      <c r="H51">
-        <v>5</v>
-      </c>
-      <c r="I51">
-        <v>4</v>
-      </c>
-      <c r="J51">
-        <v>712</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>32</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>558</v>
-      </c>
-      <c r="C52" t="s">
-        <v>609</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>10</v>
-      </c>
-      <c r="F52" t="s">
-        <v>194</v>
-      </c>
-      <c r="G52">
-        <v>6</v>
-      </c>
-      <c r="H52">
-        <v>6</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>-1</v>
-      </c>
-      <c r="N52">
-        <v>-10</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>552</v>
-      </c>
-      <c r="C53" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="E53">
-        <v>180</v>
-      </c>
-      <c r="F53" t="s">
-        <v>194</v>
-      </c>
-      <c r="G53">
-        <v>4</v>
-      </c>
-      <c r="H53">
-        <v>4</v>
-      </c>
-      <c r="I53">
-        <v>4</v>
-      </c>
-      <c r="J53">
-        <v>171</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>-9</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>559</v>
-      </c>
-      <c r="C54" t="s">
-        <v>145</v>
-      </c>
-      <c r="D54">
-        <v>36</v>
-      </c>
-      <c r="E54">
-        <v>342</v>
-      </c>
-      <c r="F54" t="s">
-        <v>194</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54">
-        <v>28</v>
-      </c>
-      <c r="J54">
-        <v>280</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>-8</v>
-      </c>
-      <c r="N54">
-        <v>-62</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>535</v>
-      </c>
-      <c r="C55" t="s">
-        <v>146</v>
-      </c>
-      <c r="D55">
-        <v>10</v>
-      </c>
-      <c r="E55">
-        <v>500</v>
-      </c>
-      <c r="F55" t="s">
-        <v>195</v>
-      </c>
-      <c r="G55">
-        <v>11</v>
-      </c>
-      <c r="H55">
-        <v>11</v>
-      </c>
-      <c r="I55">
-        <v>10</v>
-      </c>
-      <c r="J55">
-        <v>463.48</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <v>-36.51999999999998</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q55">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>549</v>
-      </c>
-      <c r="C56" t="s">
-        <v>145</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>225</v>
-      </c>
-      <c r="F56" t="s">
-        <v>195</v>
-      </c>
-      <c r="G56">
-        <v>3</v>
-      </c>
-      <c r="H56">
-        <v>3</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56">
-        <v>225</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>539</v>
-      </c>
-      <c r="C57" t="s">
-        <v>145</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>140</v>
-      </c>
-      <c r="F57" t="s">
-        <v>195</v>
-      </c>
-      <c r="G57">
-        <v>3</v>
-      </c>
-      <c r="H57">
-        <v>3</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57">
-        <v>160</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>20</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>560</v>
-      </c>
-      <c r="C58" t="s">
-        <v>145</v>
-      </c>
-      <c r="D58">
-        <v>5</v>
-      </c>
-      <c r="E58">
-        <v>125</v>
-      </c>
-      <c r="F58" t="s">
-        <v>195</v>
-      </c>
-      <c r="G58">
-        <v>12</v>
-      </c>
-      <c r="H58">
-        <v>12</v>
-      </c>
-      <c r="I58">
-        <v>5</v>
-      </c>
-      <c r="J58">
-        <v>125</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>535</v>
-      </c>
-      <c r="C59" t="s">
-        <v>144</v>
-      </c>
-      <c r="D59">
-        <v>11</v>
-      </c>
-      <c r="E59">
-        <v>520</v>
-      </c>
-      <c r="F59" t="s">
-        <v>196</v>
-      </c>
-      <c r="G59">
-        <v>11</v>
-      </c>
-      <c r="H59">
-        <v>11</v>
-      </c>
-      <c r="I59">
-        <v>11</v>
-      </c>
-      <c r="J59">
-        <v>290</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>-230</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q59">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" t="s">
-        <v>146</v>
-      </c>
-      <c r="D60">
-        <v>10</v>
-      </c>
-      <c r="E60">
-        <v>200</v>
-      </c>
-      <c r="F60" t="s">
-        <v>196</v>
-      </c>
-      <c r="G60">
-        <v>7</v>
-      </c>
-      <c r="H60">
-        <v>7</v>
-      </c>
-      <c r="I60">
-        <v>9.92</v>
-      </c>
-      <c r="J60">
-        <v>210</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>-0.08000000000000007</v>
-      </c>
-      <c r="N60">
-        <v>10</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q60">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>554</v>
-      </c>
-      <c r="C61" t="s">
-        <v>145</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>170</v>
-      </c>
-      <c r="F61" t="s">
-        <v>196</v>
-      </c>
-      <c r="G61">
-        <v>5</v>
-      </c>
-      <c r="H61">
-        <v>5</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <v>195</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>25</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>552</v>
-      </c>
-      <c r="C62" t="s">
-        <v>143</v>
-      </c>
-      <c r="D62">
-        <v>3</v>
-      </c>
-      <c r="E62">
-        <v>120</v>
-      </c>
-      <c r="F62" t="s">
-        <v>196</v>
-      </c>
-      <c r="G62">
-        <v>4</v>
-      </c>
-      <c r="H62">
-        <v>4</v>
-      </c>
-      <c r="I62">
-        <v>3</v>
-      </c>
-      <c r="J62">
-        <v>116</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>-4</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>553</v>
-      </c>
-      <c r="C63" t="s">
-        <v>143</v>
-      </c>
-      <c r="D63">
-        <v>6</v>
-      </c>
-      <c r="E63">
-        <v>60</v>
-      </c>
-      <c r="F63" t="s">
-        <v>196</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <v>6</v>
-      </c>
-      <c r="J63">
-        <v>73</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>13</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>535</v>
-      </c>
-      <c r="C64" t="s">
-        <v>144</v>
-      </c>
-      <c r="D64">
-        <v>4.51</v>
-      </c>
-      <c r="E64">
-        <v>250</v>
-      </c>
-      <c r="F64" t="s">
-        <v>197</v>
-      </c>
-      <c r="G64">
-        <v>11</v>
-      </c>
-      <c r="H64">
-        <v>11</v>
-      </c>
-      <c r="I64">
-        <v>4.51</v>
-      </c>
-      <c r="J64">
-        <v>105.29</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>-144.71</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q64">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>549</v>
-      </c>
-      <c r="C65" t="s">
-        <v>145</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65">
-        <v>450</v>
-      </c>
-      <c r="F65" t="s">
-        <v>197</v>
-      </c>
-      <c r="G65">
-        <v>3</v>
-      </c>
-      <c r="H65">
-        <v>3</v>
-      </c>
-      <c r="I65">
-        <v>2</v>
-      </c>
-      <c r="J65">
-        <v>640.67</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>190.67</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>88</v>
-      </c>
-      <c r="C66" t="s">
-        <v>146</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-      <c r="E66">
-        <v>40</v>
-      </c>
-      <c r="F66" t="s">
-        <v>197</v>
-      </c>
-      <c r="G66">
-        <v>7</v>
-      </c>
-      <c r="H66">
-        <v>7</v>
-      </c>
-      <c r="I66">
-        <v>1.925</v>
-      </c>
-      <c r="J66">
-        <v>32.63</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>-0.07499999999999996</v>
-      </c>
-      <c r="N66">
-        <v>-7.369999999999997</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q66">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>552</v>
-      </c>
-      <c r="C67" t="s">
-        <v>143</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>40</v>
-      </c>
-      <c r="F67" t="s">
-        <v>197</v>
-      </c>
-      <c r="G67">
-        <v>4</v>
-      </c>
-      <c r="H67">
-        <v>4</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="J67">
-        <v>39.54</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>-0.4600000000000009</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>553</v>
-      </c>
-      <c r="C68" t="s">
-        <v>143</v>
-      </c>
-      <c r="D68">
-        <v>4</v>
-      </c>
-      <c r="E68">
-        <v>40</v>
-      </c>
-      <c r="F68" t="s">
-        <v>197</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-      <c r="I68">
-        <v>4</v>
-      </c>
-      <c r="J68">
-        <v>47.87</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>7.869999999999997</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>535</v>
-      </c>
-      <c r="C69" t="s">
-        <v>146</v>
-      </c>
-      <c r="D69">
-        <v>19.843</v>
-      </c>
-      <c r="E69">
-        <v>924.5</v>
-      </c>
-      <c r="F69" t="s">
-        <v>198</v>
-      </c>
-      <c r="G69">
-        <v>11</v>
-      </c>
-      <c r="H69">
-        <v>11</v>
-      </c>
-      <c r="I69">
-        <v>19.843</v>
-      </c>
-      <c r="J69">
-        <v>860</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>-64.5</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q69">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>561</v>
-      </c>
-      <c r="C70" t="s">
-        <v>145</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>400</v>
-      </c>
-      <c r="F70" t="s">
-        <v>199</v>
-      </c>
-      <c r="G70">
-        <v>3</v>
-      </c>
-      <c r="H70">
-        <v>3</v>
-      </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-      <c r="J70">
-        <v>397</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>-3</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>544</v>
-      </c>
-      <c r="C71" t="s">
-        <v>145</v>
-      </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
-      <c r="E71">
-        <v>421</v>
-      </c>
-      <c r="F71" t="s">
-        <v>199</v>
-      </c>
-      <c r="G71">
-        <v>5</v>
-      </c>
-      <c r="H71">
-        <v>5</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="J71">
-        <v>265</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>-1</v>
-      </c>
-      <c r="N71">
-        <v>-156</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>554</v>
-      </c>
-      <c r="C72" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>180</v>
-      </c>
-      <c r="F72" t="s">
-        <v>199</v>
-      </c>
-      <c r="G72">
-        <v>5</v>
-      </c>
-      <c r="H72">
-        <v>5</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72">
-        <v>349</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>169</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>552</v>
-      </c>
-      <c r="C73" t="s">
-        <v>143</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>44</v>
-      </c>
-      <c r="F73" t="s">
-        <v>199</v>
-      </c>
-      <c r="G73">
-        <v>4</v>
-      </c>
-      <c r="H73">
-        <v>4</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-      <c r="J73">
-        <v>44</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>553</v>
-      </c>
-      <c r="C74" t="s">
-        <v>143</v>
-      </c>
-      <c r="D74">
-        <v>15</v>
-      </c>
-      <c r="E74">
-        <v>125</v>
-      </c>
-      <c r="F74" t="s">
-        <v>199</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>15</v>
-      </c>
-      <c r="J74">
-        <v>125</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>562</v>
-      </c>
-      <c r="C75" t="s">
-        <v>144</v>
-      </c>
-      <c r="D75">
-        <v>11</v>
-      </c>
-      <c r="E75">
-        <v>427</v>
-      </c>
-      <c r="F75" t="s">
-        <v>199</v>
-      </c>
-      <c r="G75">
-        <v>7</v>
-      </c>
-      <c r="H75">
-        <v>7</v>
-      </c>
-      <c r="I75">
-        <v>11</v>
-      </c>
-      <c r="J75">
-        <v>420</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <v>-7</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q75">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>535</v>
-      </c>
-      <c r="C76" t="s">
-        <v>146</v>
-      </c>
-      <c r="D76">
-        <v>0.54</v>
-      </c>
-      <c r="E76">
-        <v>25</v>
-      </c>
-      <c r="F76" t="s">
-        <v>200</v>
-      </c>
-      <c r="G76">
-        <v>11</v>
-      </c>
-      <c r="H76">
-        <v>11</v>
-      </c>
-      <c r="I76">
-        <v>0.54</v>
-      </c>
-      <c r="J76">
-        <v>23</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>-2</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q76">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>563</v>
-      </c>
-      <c r="C77" t="s">
-        <v>144</v>
-      </c>
-      <c r="D77">
-        <v>22.7</v>
-      </c>
-      <c r="E77">
-        <v>541</v>
-      </c>
-      <c r="F77" t="s">
-        <v>200</v>
-      </c>
-      <c r="G77">
-        <v>7</v>
-      </c>
-      <c r="H77">
-        <v>7</v>
-      </c>
-      <c r="I77">
-        <v>22.7</v>
-      </c>
-      <c r="J77">
-        <v>479</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>-62</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q77">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>548</v>
-      </c>
-      <c r="C78" t="s">
-        <v>145</v>
-      </c>
-      <c r="D78">
-        <v>3</v>
-      </c>
-      <c r="E78">
-        <v>420</v>
-      </c>
-      <c r="F78" t="s">
-        <v>201</v>
-      </c>
-      <c r="G78">
-        <v>3</v>
-      </c>
-      <c r="H78">
-        <v>3</v>
-      </c>
-      <c r="I78">
-        <v>2</v>
-      </c>
-      <c r="J78">
-        <v>314</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>-1</v>
-      </c>
-      <c r="N78">
-        <v>-106</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>564</v>
-      </c>
-      <c r="C79" t="s">
-        <v>145</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <v>443</v>
-      </c>
-      <c r="F79" t="s">
-        <v>201</v>
-      </c>
-      <c r="G79">
-        <v>3</v>
-      </c>
-      <c r="H79">
-        <v>5</v>
-      </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-      <c r="J79">
-        <v>440</v>
-      </c>
-      <c r="K79" t="s">
-        <v>625</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>-3</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>554</v>
-      </c>
-      <c r="C80" t="s">
-        <v>145</v>
-      </c>
-      <c r="D80">
-        <v>2</v>
-      </c>
-      <c r="E80">
-        <v>350</v>
-      </c>
-      <c r="F80" t="s">
-        <v>201</v>
-      </c>
-      <c r="G80">
-        <v>5</v>
-      </c>
-      <c r="H80">
-        <v>5</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-      <c r="J80">
-        <v>160</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <v>-1</v>
-      </c>
-      <c r="N80">
-        <v>-190</v>
-      </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>552</v>
-      </c>
-      <c r="C81" t="s">
-        <v>143</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81" t="s">
-        <v>201</v>
-      </c>
-      <c r="G81">
-        <v>4</v>
-      </c>
-      <c r="H81">
-        <v>4</v>
-      </c>
-      <c r="I81">
-        <v>4</v>
-      </c>
-      <c r="J81">
-        <v>49</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>4</v>
-      </c>
-      <c r="N81">
-        <v>49</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>565</v>
-      </c>
-      <c r="C82" t="s">
-        <v>145</v>
-      </c>
-      <c r="D82">
-        <v>60</v>
-      </c>
-      <c r="E82">
-        <v>1380</v>
-      </c>
-      <c r="F82" t="s">
-        <v>202</v>
-      </c>
-      <c r="G82">
-        <v>15</v>
-      </c>
-      <c r="H82">
-        <v>15</v>
-      </c>
-      <c r="I82">
-        <v>55</v>
-      </c>
-      <c r="J82">
-        <v>1618</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>-5</v>
-      </c>
-      <c r="N82">
-        <v>238</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>566</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>100</v>
-      </c>
-      <c r="F83" t="s">
-        <v>203</v>
-      </c>
-      <c r="G83">
-        <v>17</v>
-      </c>
-      <c r="H83">
-        <v>17</v>
-      </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-      <c r="J83">
-        <v>120</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <v>20</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>567</v>
-      </c>
-      <c r="C84" t="s">
-        <v>146</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84" t="s">
-        <v>611</v>
-      </c>
-      <c r="G84">
-        <v>11</v>
-      </c>
-      <c r="H84">
-        <v>11</v>
-      </c>
-      <c r="I84">
-        <v>2.381</v>
-      </c>
-      <c r="J84">
-        <v>1548.66</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <v>2.381</v>
-      </c>
-      <c r="N84">
-        <v>1548.66</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q84">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>567</v>
-      </c>
-      <c r="C85" t="s">
-        <v>146</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85" t="s">
-        <v>612</v>
-      </c>
-      <c r="G85">
-        <v>11</v>
-      </c>
-      <c r="H85">
-        <v>11</v>
-      </c>
-      <c r="I85">
-        <v>2.66</v>
-      </c>
-      <c r="J85">
-        <v>1404.81</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>2.66</v>
-      </c>
-      <c r="N85">
-        <v>1404.81</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q85">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>567</v>
-      </c>
-      <c r="C86" t="s">
-        <v>146</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86" t="s">
-        <v>161</v>
-      </c>
-      <c r="G86">
-        <v>11</v>
-      </c>
-      <c r="H86">
-        <v>11</v>
-      </c>
-      <c r="I86">
-        <v>2.654</v>
-      </c>
-      <c r="J86">
-        <v>1803.66</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>2.654</v>
-      </c>
-      <c r="N86">
-        <v>1803.66</v>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q86">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>567</v>
-      </c>
-      <c r="C87" t="s">
-        <v>146</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87" t="s">
-        <v>162</v>
-      </c>
-      <c r="G87">
-        <v>11</v>
-      </c>
-      <c r="H87">
-        <v>11</v>
-      </c>
-      <c r="I87">
-        <v>2.275</v>
-      </c>
-      <c r="J87">
-        <v>1743.01</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="M87">
-        <v>2.275</v>
-      </c>
-      <c r="N87">
-        <v>1743.01</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q87">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>567</v>
-      </c>
-      <c r="C88" t="s">
-        <v>146</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88" t="s">
-        <v>613</v>
-      </c>
-      <c r="G88">
-        <v>11</v>
-      </c>
-      <c r="H88">
-        <v>11</v>
-      </c>
-      <c r="I88">
-        <v>2.206</v>
-      </c>
-      <c r="J88">
-        <v>1392.29</v>
-      </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88">
-        <v>2.206</v>
-      </c>
-      <c r="N88">
-        <v>1392.29</v>
-      </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="P88" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q88">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>567</v>
-      </c>
-      <c r="C89" t="s">
-        <v>146</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89" t="s">
-        <v>614</v>
-      </c>
-      <c r="G89">
-        <v>11</v>
-      </c>
-      <c r="H89">
-        <v>11</v>
-      </c>
-      <c r="I89">
-        <v>5.045</v>
-      </c>
-      <c r="J89">
-        <v>1509.92</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89">
-        <v>5.045</v>
-      </c>
-      <c r="N89">
-        <v>1509.92</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q89">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>567</v>
-      </c>
-      <c r="C90" t="s">
-        <v>143</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90" t="s">
-        <v>164</v>
-      </c>
-      <c r="G90">
-        <v>11</v>
-      </c>
-      <c r="H90">
-        <v>11</v>
-      </c>
-      <c r="I90">
-        <v>5</v>
-      </c>
-      <c r="J90">
-        <v>225</v>
-      </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="M90">
-        <v>5</v>
-      </c>
-      <c r="N90">
-        <v>225</v>
-      </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="P90" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q90">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>568</v>
-      </c>
-      <c r="C91" t="s">
-        <v>144</v>
-      </c>
-      <c r="D91">
-        <v>14.2</v>
-      </c>
-      <c r="E91">
-        <v>330</v>
-      </c>
-      <c r="F91" t="s">
-        <v>169</v>
-      </c>
-      <c r="G91">
-        <v>10</v>
-      </c>
-      <c r="H91">
-        <v>10</v>
-      </c>
-      <c r="I91">
-        <v>16.75</v>
-      </c>
-      <c r="J91">
-        <v>385.43</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91">
-        <v>2.550000000000001</v>
-      </c>
-      <c r="N91">
-        <v>55.43000000000001</v>
-      </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-      <c r="P91" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q91">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>569</v>
-      </c>
-      <c r="C92" t="s">
-        <v>145</v>
-      </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-      <c r="E92">
-        <v>415</v>
-      </c>
-      <c r="F92" t="s">
-        <v>169</v>
-      </c>
-      <c r="G92">
-        <v>2</v>
-      </c>
-      <c r="H92">
-        <v>2</v>
-      </c>
-      <c r="I92">
-        <v>2</v>
-      </c>
-      <c r="J92">
-        <v>327.05</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-      <c r="N92">
-        <v>-87.94999999999999</v>
-      </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>570</v>
-      </c>
-      <c r="C93" t="s">
-        <v>144</v>
-      </c>
-      <c r="D93">
-        <v>21.362</v>
-      </c>
-      <c r="E93">
-        <v>600</v>
-      </c>
-      <c r="F93" t="s">
-        <v>169</v>
-      </c>
-      <c r="G93">
-        <v>8</v>
-      </c>
-      <c r="H93">
-        <v>8</v>
-      </c>
-      <c r="I93">
-        <v>19.695</v>
-      </c>
-      <c r="J93">
-        <v>857.52</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <v>-1.666999999999998</v>
-      </c>
-      <c r="N93">
-        <v>257.52</v>
-      </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-      <c r="P93" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q93">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>571</v>
-      </c>
-      <c r="C94" t="s">
-        <v>144</v>
-      </c>
-      <c r="D94">
-        <v>36.33</v>
-      </c>
-      <c r="E94">
-        <v>745</v>
-      </c>
-      <c r="F94" t="s">
-        <v>170</v>
-      </c>
-      <c r="G94">
-        <v>10</v>
-      </c>
-      <c r="H94">
-        <v>10</v>
-      </c>
-      <c r="I94">
-        <v>32.592</v>
-      </c>
-      <c r="J94">
-        <v>980</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94">
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <v>-3.738</v>
-      </c>
-      <c r="N94">
-        <v>235</v>
-      </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
-      <c r="P94" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q94">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>572</v>
-      </c>
-      <c r="C95" t="s">
-        <v>145</v>
-      </c>
-      <c r="D95">
-        <v>14</v>
-      </c>
-      <c r="E95">
-        <v>35</v>
-      </c>
-      <c r="F95" t="s">
-        <v>170</v>
-      </c>
-      <c r="G95">
-        <v>16</v>
-      </c>
-      <c r="H95">
-        <v>16</v>
-      </c>
-      <c r="I95">
-        <v>13</v>
-      </c>
-      <c r="J95">
-        <v>35</v>
-      </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-      <c r="M95">
-        <v>-1</v>
-      </c>
-      <c r="N95">
-        <v>0</v>
-      </c>
-      <c r="O95">
-        <v>0</v>
-      </c>
-      <c r="P95">
-        <v>0</v>
-      </c>
-      <c r="Q95">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>573</v>
-      </c>
-      <c r="C96" t="s">
-        <v>145</v>
-      </c>
-      <c r="D96">
-        <v>2</v>
-      </c>
-      <c r="E96">
-        <v>340</v>
-      </c>
-      <c r="F96" t="s">
-        <v>170</v>
-      </c>
-      <c r="G96">
-        <v>2</v>
-      </c>
-      <c r="H96">
-        <v>2</v>
-      </c>
-      <c r="I96">
-        <v>2</v>
-      </c>
-      <c r="J96">
-        <v>456</v>
-      </c>
-      <c r="K96">
-        <v>0</v>
-      </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-      <c r="N96">
-        <v>116</v>
-      </c>
-      <c r="O96">
-        <v>0</v>
-      </c>
-      <c r="P96">
-        <v>0</v>
-      </c>
-      <c r="Q96">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>574</v>
-      </c>
-      <c r="C97" t="s">
-        <v>144</v>
-      </c>
-      <c r="D97">
-        <v>14</v>
-      </c>
-      <c r="E97">
-        <v>180</v>
-      </c>
-      <c r="F97" t="s">
-        <v>170</v>
-      </c>
-      <c r="G97">
-        <v>8</v>
-      </c>
-      <c r="H97">
-        <v>8</v>
-      </c>
-      <c r="I97">
-        <v>3.312</v>
-      </c>
-      <c r="J97">
-        <v>54.82</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97">
-        <v>-10.688</v>
-      </c>
-      <c r="N97">
-        <v>-125.18</v>
-      </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
-      <c r="P97" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q97">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>575</v>
-      </c>
-      <c r="C98" t="s">
-        <v>144</v>
-      </c>
-      <c r="D98">
-        <v>18.1</v>
-      </c>
-      <c r="E98">
-        <v>430</v>
-      </c>
-      <c r="F98" t="s">
-        <v>615</v>
-      </c>
-      <c r="G98">
-        <v>9</v>
-      </c>
-      <c r="H98">
-        <v>9</v>
-      </c>
-      <c r="I98">
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <v>0</v>
-      </c>
-      <c r="L98">
-        <v>0</v>
-      </c>
-      <c r="M98">
-        <v>-18.1</v>
-      </c>
-      <c r="N98">
-        <v>-430</v>
-      </c>
-      <c r="O98">
-        <v>0</v>
-      </c>
-      <c r="P98" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q98">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>576</v>
-      </c>
-      <c r="C99" t="s">
-        <v>144</v>
-      </c>
-      <c r="D99">
-        <v>16.9</v>
-      </c>
-      <c r="E99">
-        <v>300</v>
-      </c>
-      <c r="F99" t="s">
-        <v>615</v>
-      </c>
-      <c r="G99">
-        <v>10</v>
-      </c>
-      <c r="H99">
-        <v>10</v>
-      </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="M99">
-        <v>-16.9</v>
-      </c>
-      <c r="N99">
-        <v>-300</v>
-      </c>
-      <c r="O99">
-        <v>0</v>
-      </c>
-      <c r="P99" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q99">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>577</v>
-      </c>
-      <c r="C100" t="s">
-        <v>145</v>
-      </c>
-      <c r="D100">
-        <v>2</v>
-      </c>
-      <c r="E100">
-        <v>340</v>
-      </c>
-      <c r="F100" t="s">
-        <v>615</v>
-      </c>
-      <c r="G100">
-        <v>3</v>
-      </c>
-      <c r="H100">
-        <v>3</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
-      </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100">
-        <v>-2</v>
-      </c>
-      <c r="N100">
-        <v>-340</v>
-      </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>578</v>
-      </c>
-      <c r="C101" t="s">
-        <v>145</v>
-      </c>
-      <c r="D101">
-        <v>17</v>
-      </c>
-      <c r="E101">
-        <v>55</v>
-      </c>
-      <c r="F101" t="s">
-        <v>615</v>
-      </c>
-      <c r="G101">
-        <v>3</v>
-      </c>
-      <c r="H101">
-        <v>3</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101">
-        <v>0</v>
-      </c>
-      <c r="L101">
-        <v>0</v>
-      </c>
-      <c r="M101">
-        <v>-17</v>
-      </c>
-      <c r="N101">
-        <v>-55</v>
-      </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
-      <c r="Q101">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>534</v>
-      </c>
-      <c r="C102" t="s">
-        <v>144</v>
-      </c>
-      <c r="D102">
-        <v>2</v>
-      </c>
-      <c r="E102">
-        <v>50</v>
-      </c>
-      <c r="F102" t="s">
-        <v>615</v>
-      </c>
-      <c r="G102">
-        <v>8</v>
-      </c>
-      <c r="H102">
-        <v>8</v>
-      </c>
-      <c r="I102">
-        <v>0</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-      <c r="K102">
-        <v>0</v>
-      </c>
-      <c r="L102">
-        <v>0</v>
-      </c>
-      <c r="M102">
-        <v>-2</v>
-      </c>
-      <c r="N102">
-        <v>-50</v>
-      </c>
-      <c r="O102">
-        <v>0</v>
-      </c>
-      <c r="P102" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q102">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>579</v>
-      </c>
-      <c r="C103" t="s">
-        <v>144</v>
-      </c>
-      <c r="D103">
-        <v>23.815</v>
-      </c>
-      <c r="E103">
-        <v>1190</v>
-      </c>
-      <c r="F103" t="s">
-        <v>171</v>
-      </c>
-      <c r="G103">
-        <v>11</v>
-      </c>
-      <c r="H103">
-        <v>11</v>
-      </c>
-      <c r="I103">
-        <v>23.815</v>
-      </c>
-      <c r="J103">
-        <v>1161.49</v>
-      </c>
-      <c r="K103">
-        <v>0</v>
-      </c>
-      <c r="L103">
-        <v>0</v>
-      </c>
-      <c r="M103">
-        <v>0</v>
-      </c>
-      <c r="N103">
-        <v>-28.50999999999999</v>
-      </c>
-      <c r="O103">
-        <v>0</v>
-      </c>
-      <c r="P103" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q103">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>580</v>
-      </c>
-      <c r="C104" t="s">
-        <v>145</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-      <c r="E104">
-        <v>323</v>
-      </c>
-      <c r="F104" t="s">
-        <v>172</v>
-      </c>
-      <c r="G104">
-        <v>3</v>
-      </c>
-      <c r="H104">
-        <v>3</v>
-      </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
-      <c r="J104">
-        <v>400</v>
-      </c>
-      <c r="K104">
-        <v>0</v>
-      </c>
-      <c r="L104">
-        <v>0</v>
-      </c>
-      <c r="M104">
-        <v>0</v>
-      </c>
-      <c r="N104">
-        <v>77</v>
-      </c>
-      <c r="O104">
-        <v>0</v>
-      </c>
-      <c r="P104">
-        <v>0</v>
-      </c>
-      <c r="Q104">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>581</v>
-      </c>
-      <c r="C105" t="s">
-        <v>145</v>
-      </c>
-      <c r="D105">
-        <v>5</v>
-      </c>
-      <c r="E105">
-        <v>792</v>
-      </c>
-      <c r="F105" t="s">
-        <v>172</v>
-      </c>
-      <c r="G105">
-        <v>3</v>
-      </c>
-      <c r="H105">
-        <v>3</v>
-      </c>
-      <c r="I105">
-        <v>4</v>
-      </c>
-      <c r="J105">
-        <v>460</v>
-      </c>
-      <c r="K105">
-        <v>0</v>
-      </c>
-      <c r="L105">
-        <v>0</v>
-      </c>
-      <c r="M105">
-        <v>-1</v>
-      </c>
-      <c r="N105">
-        <v>-332</v>
-      </c>
-      <c r="O105">
-        <v>0</v>
-      </c>
-      <c r="P105">
-        <v>0</v>
-      </c>
-      <c r="Q105">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106" t="s">
-        <v>582</v>
-      </c>
-      <c r="C106" t="s">
-        <v>145</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-      <c r="E106">
-        <v>225</v>
-      </c>
-      <c r="F106" t="s">
-        <v>172</v>
-      </c>
-      <c r="G106">
-        <v>3</v>
-      </c>
-      <c r="H106">
-        <v>3</v>
-      </c>
-      <c r="I106">
-        <v>1</v>
-      </c>
-      <c r="J106">
-        <v>231.95</v>
-      </c>
-      <c r="K106">
-        <v>0</v>
-      </c>
-      <c r="L106">
-        <v>0</v>
-      </c>
-      <c r="M106">
-        <v>0</v>
-      </c>
-      <c r="N106">
-        <v>6.949999999999989</v>
-      </c>
-      <c r="O106">
-        <v>0</v>
-      </c>
-      <c r="P106">
-        <v>0</v>
-      </c>
-      <c r="Q106">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>583</v>
-      </c>
-      <c r="C107" t="s">
-        <v>145</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107" t="s">
-        <v>172</v>
-      </c>
-      <c r="G107">
-        <v>5</v>
-      </c>
-      <c r="H107">
-        <v>5</v>
-      </c>
-      <c r="I107">
-        <v>1</v>
-      </c>
-      <c r="J107">
-        <v>125</v>
-      </c>
-      <c r="K107">
-        <v>0</v>
-      </c>
-      <c r="L107">
-        <v>0</v>
-      </c>
-      <c r="M107">
-        <v>1</v>
-      </c>
-      <c r="N107">
-        <v>125</v>
-      </c>
-      <c r="O107">
-        <v>0</v>
-      </c>
-      <c r="P107">
-        <v>0</v>
-      </c>
-      <c r="Q107">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108" t="s">
-        <v>583</v>
-      </c>
-      <c r="C108" t="s">
-        <v>145</v>
-      </c>
-      <c r="D108">
-        <v>2</v>
-      </c>
-      <c r="E108">
-        <v>273</v>
-      </c>
-      <c r="F108" t="s">
-        <v>173</v>
-      </c>
-      <c r="G108">
-        <v>5</v>
-      </c>
-      <c r="H108">
-        <v>5</v>
-      </c>
-      <c r="I108">
-        <v>2</v>
-      </c>
-      <c r="J108">
-        <v>356.4</v>
-      </c>
-      <c r="K108">
-        <v>0</v>
-      </c>
-      <c r="L108">
-        <v>0</v>
-      </c>
-      <c r="M108">
-        <v>0</v>
-      </c>
-      <c r="N108">
-        <v>83.39999999999998</v>
-      </c>
-      <c r="O108">
-        <v>0</v>
-      </c>
-      <c r="P108">
-        <v>0</v>
-      </c>
-      <c r="Q108">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>584</v>
-      </c>
-      <c r="C109" t="s">
-        <v>145</v>
-      </c>
-      <c r="D109">
-        <v>2</v>
-      </c>
-      <c r="E109">
-        <v>643</v>
-      </c>
-      <c r="F109" t="s">
-        <v>173</v>
-      </c>
-      <c r="G109">
-        <v>5</v>
-      </c>
-      <c r="H109">
-        <v>5</v>
-      </c>
-      <c r="I109">
-        <v>2</v>
-      </c>
-      <c r="J109">
-        <v>529.6</v>
-      </c>
-      <c r="K109">
-        <v>0</v>
-      </c>
-      <c r="L109">
-        <v>0</v>
-      </c>
-      <c r="M109">
-        <v>0</v>
-      </c>
-      <c r="N109">
-        <v>-113.4</v>
-      </c>
-      <c r="O109">
-        <v>0</v>
-      </c>
-      <c r="P109">
-        <v>0</v>
-      </c>
-      <c r="Q109">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>552</v>
-      </c>
-      <c r="C110" t="s">
-        <v>145</v>
-      </c>
-      <c r="D110">
-        <v>9</v>
-      </c>
-      <c r="E110">
-        <v>550</v>
-      </c>
-      <c r="F110" t="s">
-        <v>173</v>
-      </c>
-      <c r="G110">
-        <v>4</v>
-      </c>
-      <c r="H110">
-        <v>4</v>
-      </c>
-      <c r="I110">
-        <v>9</v>
-      </c>
-      <c r="J110">
-        <v>540</v>
-      </c>
-      <c r="K110">
-        <v>0</v>
-      </c>
-      <c r="L110">
-        <v>0</v>
-      </c>
-      <c r="M110">
-        <v>0</v>
-      </c>
-      <c r="N110">
-        <v>-10</v>
-      </c>
-      <c r="O110">
-        <v>0</v>
-      </c>
-      <c r="P110">
-        <v>0</v>
-      </c>
-      <c r="Q110">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
-        <v>257</v>
-      </c>
-      <c r="C111" t="s">
-        <v>145</v>
-      </c>
-      <c r="D111">
-        <v>15</v>
-      </c>
-      <c r="E111">
-        <v>134</v>
-      </c>
-      <c r="F111" t="s">
-        <v>173</v>
-      </c>
-      <c r="G111">
-        <v>1</v>
-      </c>
-      <c r="H111">
-        <v>1</v>
-      </c>
-      <c r="I111">
-        <v>15</v>
-      </c>
-      <c r="J111">
-        <v>134</v>
-      </c>
-      <c r="K111">
-        <v>0</v>
-      </c>
-      <c r="L111">
-        <v>0</v>
-      </c>
-      <c r="M111">
-        <v>0</v>
-      </c>
-      <c r="N111">
-        <v>0</v>
-      </c>
-      <c r="O111">
-        <v>0</v>
-      </c>
-      <c r="P111">
-        <v>0</v>
-      </c>
-      <c r="Q111">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112" t="s">
-        <v>585</v>
-      </c>
-      <c r="C112" t="s">
-        <v>144</v>
-      </c>
-      <c r="D112">
-        <v>24.619</v>
-      </c>
-      <c r="E112">
-        <v>626</v>
-      </c>
-      <c r="F112" t="s">
-        <v>174</v>
-      </c>
-      <c r="G112">
-        <v>7</v>
-      </c>
-      <c r="H112">
-        <v>7</v>
-      </c>
-      <c r="I112">
-        <v>18.048</v>
-      </c>
-      <c r="J112">
-        <v>606.84</v>
-      </c>
-      <c r="K112">
-        <v>0</v>
-      </c>
-      <c r="L112">
-        <v>0</v>
-      </c>
-      <c r="M112">
-        <v>-6.571000000000002</v>
-      </c>
-      <c r="N112">
-        <v>-19.15999999999997</v>
-      </c>
-      <c r="O112">
-        <v>0</v>
-      </c>
-      <c r="P112" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q112">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113" t="s">
-        <v>586</v>
-      </c>
-      <c r="C113" t="s">
-        <v>144</v>
-      </c>
-      <c r="D113">
-        <v>15.54</v>
-      </c>
-      <c r="E113">
-        <v>393</v>
-      </c>
-      <c r="F113" t="s">
-        <v>174</v>
-      </c>
-      <c r="G113">
-        <v>7</v>
-      </c>
-      <c r="H113">
-        <v>7</v>
-      </c>
-      <c r="I113">
-        <v>12.01</v>
-      </c>
-      <c r="J113">
-        <v>319.92</v>
-      </c>
-      <c r="K113">
-        <v>0</v>
-      </c>
-      <c r="L113">
-        <v>0</v>
-      </c>
-      <c r="M113">
-        <v>-3.529999999999999</v>
-      </c>
-      <c r="N113">
-        <v>-73.07999999999998</v>
-      </c>
-      <c r="O113">
-        <v>0</v>
-      </c>
-      <c r="P113" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q113">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114" t="s">
-        <v>587</v>
-      </c>
-      <c r="C114" t="s">
-        <v>145</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-      <c r="E114">
-        <v>11</v>
-      </c>
-      <c r="F114" t="s">
-        <v>174</v>
-      </c>
-      <c r="G114">
-        <v>2</v>
-      </c>
-      <c r="H114">
-        <v>2</v>
-      </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
-      <c r="J114">
-        <v>9.69</v>
-      </c>
-      <c r="K114">
-        <v>0</v>
-      </c>
-      <c r="L114">
-        <v>0</v>
-      </c>
-      <c r="M114">
-        <v>0</v>
-      </c>
-      <c r="N114">
-        <v>-1.31</v>
-      </c>
-      <c r="O114">
-        <v>0</v>
-      </c>
-      <c r="P114">
-        <v>0</v>
-      </c>
-      <c r="Q114">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s">
-        <v>588</v>
-      </c>
-      <c r="C115" t="s">
-        <v>145</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-      <c r="E115">
-        <v>100</v>
-      </c>
-      <c r="F115" t="s">
-        <v>175</v>
-      </c>
-      <c r="G115">
-        <v>17</v>
-      </c>
-      <c r="H115">
-        <v>17</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-      <c r="K115">
-        <v>0</v>
-      </c>
-      <c r="L115">
-        <v>0</v>
-      </c>
-      <c r="M115">
-        <v>-1</v>
-      </c>
-      <c r="N115">
-        <v>-100</v>
-      </c>
-      <c r="O115">
-        <v>0</v>
-      </c>
-      <c r="P115">
-        <v>0</v>
-      </c>
-      <c r="Q115">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116" t="s">
-        <v>589</v>
-      </c>
-      <c r="C116" t="s">
-        <v>144</v>
-      </c>
-      <c r="D116">
-        <v>46.21</v>
-      </c>
-      <c r="E116">
-        <v>1530</v>
-      </c>
-      <c r="F116" t="s">
-        <v>616</v>
-      </c>
-      <c r="G116">
-        <v>9</v>
-      </c>
-      <c r="H116">
-        <v>9</v>
-      </c>
-      <c r="I116">
-        <v>46.21</v>
-      </c>
-      <c r="J116">
-        <v>1483</v>
-      </c>
-      <c r="K116">
-        <v>0</v>
-      </c>
-      <c r="L116">
-        <v>0</v>
-      </c>
-      <c r="M116">
-        <v>0</v>
-      </c>
-      <c r="N116">
-        <v>-47</v>
-      </c>
-      <c r="O116">
-        <v>0</v>
-      </c>
-      <c r="P116" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q116">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17">
-      <c r="A117" s="1">
-        <v>115</v>
-      </c>
-      <c r="B117" t="s">
-        <v>590</v>
-      </c>
-      <c r="C117" t="s">
-        <v>144</v>
-      </c>
-      <c r="D117">
-        <v>54.538</v>
-      </c>
-      <c r="E117">
-        <v>1070</v>
-      </c>
-      <c r="F117" t="s">
-        <v>617</v>
-      </c>
-      <c r="G117">
-        <v>8</v>
-      </c>
-      <c r="H117">
-        <v>8</v>
-      </c>
-      <c r="I117">
-        <v>50.383</v>
-      </c>
-      <c r="J117">
-        <v>825</v>
-      </c>
-      <c r="K117">
-        <v>0</v>
-      </c>
-      <c r="L117">
-        <v>0</v>
-      </c>
-      <c r="M117">
-        <v>-4.154999999999994</v>
-      </c>
-      <c r="N117">
-        <v>-245</v>
-      </c>
-      <c r="O117">
-        <v>0</v>
-      </c>
-      <c r="P117" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q117">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17">
-      <c r="A118" s="1">
-        <v>116</v>
-      </c>
-      <c r="B118" t="s">
-        <v>591</v>
-      </c>
-      <c r="C118" t="s">
-        <v>144</v>
-      </c>
-      <c r="D118">
-        <v>15</v>
-      </c>
-      <c r="E118">
-        <v>580</v>
-      </c>
-      <c r="F118" t="s">
-        <v>618</v>
-      </c>
-      <c r="G118">
-        <v>9</v>
-      </c>
-      <c r="H118">
-        <v>9</v>
-      </c>
-      <c r="I118">
-        <v>20.9</v>
-      </c>
-      <c r="J118">
-        <v>552.4299999999999</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
-      </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
-      <c r="M118">
-        <v>5.899999999999999</v>
-      </c>
-      <c r="N118">
-        <v>-27.57000000000005</v>
-      </c>
-      <c r="O118">
-        <v>0</v>
-      </c>
-      <c r="P118" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q118">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17">
-      <c r="A119" s="1">
-        <v>117</v>
-      </c>
-      <c r="B119" t="s">
-        <v>592</v>
-      </c>
-      <c r="C119" t="s">
-        <v>144</v>
-      </c>
-      <c r="D119">
-        <v>3.6</v>
-      </c>
-      <c r="E119">
-        <v>58</v>
-      </c>
-      <c r="F119" t="s">
-        <v>618</v>
-      </c>
-      <c r="G119">
-        <v>10</v>
-      </c>
-      <c r="H119">
-        <v>10</v>
-      </c>
-      <c r="I119">
-        <v>3.56</v>
-      </c>
-      <c r="J119">
-        <v>68</v>
-      </c>
-      <c r="K119">
-        <v>0</v>
-      </c>
-      <c r="L119">
-        <v>0</v>
-      </c>
-      <c r="M119">
-        <v>-0.04000000000000004</v>
-      </c>
-      <c r="N119">
-        <v>10</v>
-      </c>
-      <c r="O119">
-        <v>0</v>
-      </c>
-      <c r="P119" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q119">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17">
-      <c r="A120" s="1">
-        <v>118</v>
-      </c>
-      <c r="B120" t="s">
-        <v>593</v>
-      </c>
-      <c r="C120" t="s">
-        <v>145</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="E120">
-        <v>420</v>
-      </c>
-      <c r="F120" t="s">
-        <v>618</v>
-      </c>
-      <c r="G120">
-        <v>2</v>
-      </c>
-      <c r="H120">
-        <v>2</v>
-      </c>
-      <c r="I120">
-        <v>1</v>
-      </c>
-      <c r="J120">
-        <v>389.57</v>
-      </c>
-      <c r="K120">
-        <v>0</v>
-      </c>
-      <c r="L120">
-        <v>0</v>
-      </c>
-      <c r="M120">
-        <v>0</v>
-      </c>
-      <c r="N120">
-        <v>-30.43000000000001</v>
-      </c>
-      <c r="O120">
-        <v>0</v>
-      </c>
-      <c r="P120">
-        <v>0</v>
-      </c>
-      <c r="Q120">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17">
-      <c r="A121" s="1">
-        <v>119</v>
-      </c>
-      <c r="B121" t="s">
-        <v>594</v>
-      </c>
-      <c r="C121" t="s">
-        <v>145</v>
-      </c>
-      <c r="D121">
-        <v>32</v>
-      </c>
-      <c r="E121">
-        <v>80</v>
-      </c>
-      <c r="F121" t="s">
-        <v>618</v>
-      </c>
-      <c r="G121">
-        <v>16</v>
-      </c>
-      <c r="H121">
-        <v>16</v>
-      </c>
-      <c r="I121">
-        <v>32</v>
-      </c>
-      <c r="J121">
-        <v>80</v>
-      </c>
-      <c r="K121">
-        <v>0</v>
-      </c>
-      <c r="L121">
-        <v>0</v>
-      </c>
-      <c r="M121">
-        <v>0</v>
-      </c>
-      <c r="N121">
-        <v>0</v>
-      </c>
-      <c r="O121">
-        <v>0</v>
-      </c>
-      <c r="P121">
-        <v>0</v>
-      </c>
-      <c r="Q121">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17">
-      <c r="A122" s="1">
-        <v>120</v>
-      </c>
-      <c r="B122" t="s">
-        <v>595</v>
-      </c>
-      <c r="C122" t="s">
-        <v>144</v>
-      </c>
-      <c r="D122">
-        <v>16</v>
-      </c>
-      <c r="E122">
-        <v>352</v>
-      </c>
-      <c r="F122" t="s">
-        <v>619</v>
-      </c>
-      <c r="G122">
-        <v>10</v>
-      </c>
-      <c r="H122">
-        <v>10</v>
-      </c>
-      <c r="I122">
-        <v>9.75</v>
-      </c>
-      <c r="J122">
-        <v>315</v>
-      </c>
-      <c r="K122">
-        <v>0</v>
-      </c>
-      <c r="L122">
-        <v>0</v>
-      </c>
-      <c r="M122">
-        <v>-6.25</v>
-      </c>
-      <c r="N122">
-        <v>-37</v>
-      </c>
-      <c r="O122">
-        <v>0</v>
-      </c>
-      <c r="P122" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q122">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17">
-      <c r="A123" s="1">
-        <v>121</v>
-      </c>
-      <c r="B123" t="s">
-        <v>594</v>
-      </c>
-      <c r="C123" t="s">
-        <v>145</v>
-      </c>
-      <c r="D123">
-        <v>24</v>
-      </c>
-      <c r="E123">
-        <v>60</v>
-      </c>
-      <c r="F123" t="s">
-        <v>619</v>
-      </c>
-      <c r="G123">
-        <v>16</v>
-      </c>
-      <c r="H123">
-        <v>16</v>
-      </c>
-      <c r="I123">
-        <v>24</v>
-      </c>
-      <c r="J123">
-        <v>60</v>
-      </c>
-      <c r="K123">
-        <v>0</v>
-      </c>
-      <c r="L123">
-        <v>0</v>
-      </c>
-      <c r="M123">
-        <v>0</v>
-      </c>
-      <c r="N123">
-        <v>0</v>
-      </c>
-      <c r="O123">
-        <v>0</v>
-      </c>
-      <c r="P123">
-        <v>0</v>
-      </c>
-      <c r="Q123">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17">
-      <c r="A124" s="1">
-        <v>122</v>
-      </c>
-      <c r="B124" t="s">
-        <v>596</v>
-      </c>
-      <c r="C124" t="s">
-        <v>144</v>
-      </c>
-      <c r="D124">
-        <v>26.1</v>
-      </c>
-      <c r="E124">
-        <v>398</v>
-      </c>
-      <c r="F124" t="s">
-        <v>619</v>
-      </c>
-      <c r="G124">
-        <v>8</v>
-      </c>
-      <c r="H124">
-        <v>8</v>
-      </c>
-      <c r="I124">
-        <v>24.033</v>
-      </c>
-      <c r="J124">
-        <v>1165</v>
-      </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
-      <c r="M124">
-        <v>-2.067</v>
-      </c>
-      <c r="N124">
-        <v>767</v>
-      </c>
-      <c r="O124">
-        <v>0</v>
-      </c>
-      <c r="P124" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q124">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="125" spans="1:17">
-      <c r="A125" s="1">
-        <v>123</v>
-      </c>
-      <c r="B125" t="s">
-        <v>579</v>
-      </c>
-      <c r="C125" t="s">
-        <v>144</v>
-      </c>
-      <c r="D125">
-        <v>1.8</v>
-      </c>
-      <c r="E125">
-        <v>95</v>
-      </c>
-      <c r="F125" t="s">
-        <v>620</v>
-      </c>
-      <c r="G125">
-        <v>11</v>
-      </c>
-      <c r="H125">
-        <v>11</v>
-      </c>
-      <c r="I125">
-        <v>3.071</v>
-      </c>
-      <c r="J125">
-        <v>57.25</v>
-      </c>
-      <c r="K125">
-        <v>0</v>
-      </c>
-      <c r="L125">
-        <v>0</v>
-      </c>
-      <c r="M125">
-        <v>1.271</v>
-      </c>
-      <c r="N125">
-        <v>-37.75</v>
-      </c>
-      <c r="O125">
-        <v>0</v>
-      </c>
-      <c r="P125" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q125">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17">
-      <c r="A126" s="1">
-        <v>124</v>
-      </c>
-      <c r="B126" t="s">
-        <v>581</v>
-      </c>
-      <c r="C126" t="s">
-        <v>145</v>
-      </c>
-      <c r="D126">
-        <v>3</v>
-      </c>
-      <c r="E126">
-        <v>550</v>
-      </c>
-      <c r="F126" t="s">
-        <v>620</v>
-      </c>
-      <c r="G126">
-        <v>3</v>
-      </c>
-      <c r="H126">
-        <v>3</v>
-      </c>
-      <c r="I126">
-        <v>3</v>
-      </c>
-      <c r="J126">
-        <v>712.4299999999999</v>
-      </c>
-      <c r="K126">
-        <v>0</v>
-      </c>
-      <c r="L126">
-        <v>0</v>
-      </c>
-      <c r="M126">
-        <v>0</v>
-      </c>
-      <c r="N126">
-        <v>162.4299999999999</v>
-      </c>
-      <c r="O126">
-        <v>0</v>
-      </c>
-      <c r="P126">
-        <v>0</v>
-      </c>
-      <c r="Q126">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127" t="s">
-        <v>597</v>
-      </c>
-      <c r="C127" t="s">
-        <v>145</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-      <c r="E127">
-        <v>375</v>
-      </c>
-      <c r="F127" t="s">
-        <v>620</v>
-      </c>
-      <c r="G127">
-        <v>3</v>
-      </c>
-      <c r="H127">
-        <v>3</v>
-      </c>
-      <c r="I127">
-        <v>1</v>
-      </c>
-      <c r="J127">
-        <v>439.67</v>
-      </c>
-      <c r="K127">
-        <v>0</v>
-      </c>
-      <c r="L127">
-        <v>0</v>
-      </c>
-      <c r="M127">
-        <v>0</v>
-      </c>
-      <c r="N127">
-        <v>64.67000000000002</v>
-      </c>
-      <c r="O127">
-        <v>0</v>
-      </c>
-      <c r="P127">
-        <v>0</v>
-      </c>
-      <c r="Q127">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128" t="s">
-        <v>552</v>
-      </c>
-      <c r="C128" t="s">
-        <v>145</v>
-      </c>
-      <c r="D128">
-        <v>2</v>
-      </c>
-      <c r="E128">
-        <v>80</v>
-      </c>
-      <c r="F128" t="s">
-        <v>621</v>
-      </c>
-      <c r="G128">
-        <v>4</v>
-      </c>
-      <c r="H128">
-        <v>4</v>
-      </c>
-      <c r="I128">
-        <v>2</v>
-      </c>
-      <c r="J128">
-        <v>83</v>
-      </c>
-      <c r="K128">
-        <v>0</v>
-      </c>
-      <c r="L128">
-        <v>0</v>
-      </c>
-      <c r="M128">
-        <v>0</v>
-      </c>
-      <c r="N128">
-        <v>3</v>
-      </c>
-      <c r="O128">
-        <v>0</v>
-      </c>
-      <c r="P128">
-        <v>0</v>
-      </c>
-      <c r="Q128">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="129" spans="1:17">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129" t="s">
-        <v>257</v>
-      </c>
-      <c r="C129" t="s">
-        <v>145</v>
-      </c>
-      <c r="D129">
-        <v>2</v>
-      </c>
-      <c r="E129">
-        <v>20</v>
-      </c>
-      <c r="F129" t="s">
-        <v>621</v>
-      </c>
-      <c r="G129">
-        <v>1</v>
-      </c>
-      <c r="H129">
-        <v>1</v>
-      </c>
-      <c r="I129">
-        <v>2</v>
-      </c>
-      <c r="J129">
-        <v>16.92</v>
-      </c>
-      <c r="K129">
-        <v>0</v>
-      </c>
-      <c r="L129">
-        <v>0</v>
-      </c>
-      <c r="M129">
-        <v>0</v>
-      </c>
-      <c r="N129">
-        <v>-3.079999999999998</v>
-      </c>
-      <c r="O129">
-        <v>0</v>
-      </c>
-      <c r="P129">
-        <v>0</v>
-      </c>
-      <c r="Q129">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="130" spans="1:17">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130" t="s">
-        <v>598</v>
-      </c>
-      <c r="C130" t="s">
-        <v>144</v>
-      </c>
-      <c r="D130">
-        <v>12</v>
-      </c>
-      <c r="E130">
-        <v>550</v>
-      </c>
-      <c r="F130" t="s">
-        <v>621</v>
-      </c>
-      <c r="G130">
-        <v>7</v>
-      </c>
-      <c r="H130">
-        <v>7</v>
-      </c>
-      <c r="I130">
-        <v>9.5</v>
-      </c>
-      <c r="J130">
-        <v>370</v>
-      </c>
-      <c r="K130">
-        <v>0</v>
-      </c>
-      <c r="L130">
-        <v>0</v>
-      </c>
-      <c r="M130">
-        <v>-2.5</v>
-      </c>
-      <c r="N130">
-        <v>-180</v>
-      </c>
-      <c r="O130">
-        <v>0</v>
-      </c>
-      <c r="P130" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q130">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131" t="s">
-        <v>599</v>
-      </c>
-      <c r="C131" t="s">
-        <v>145</v>
-      </c>
-      <c r="D131">
-        <v>1</v>
-      </c>
-      <c r="E131">
-        <v>20</v>
-      </c>
-      <c r="F131" t="s">
-        <v>621</v>
-      </c>
-      <c r="G131">
-        <v>12</v>
-      </c>
-      <c r="H131">
-        <v>12</v>
-      </c>
-      <c r="I131">
-        <v>1</v>
-      </c>
-      <c r="J131">
-        <v>12</v>
-      </c>
-      <c r="K131">
-        <v>0</v>
-      </c>
-      <c r="L131">
-        <v>0</v>
-      </c>
-      <c r="M131">
-        <v>0</v>
-      </c>
-      <c r="N131">
-        <v>-8</v>
-      </c>
-      <c r="O131">
-        <v>0</v>
-      </c>
-      <c r="P131">
-        <v>0</v>
-      </c>
-      <c r="Q131">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132" t="s">
-        <v>600</v>
-      </c>
-      <c r="C132" t="s">
-        <v>144</v>
-      </c>
-      <c r="D132">
-        <v>24</v>
-      </c>
-      <c r="E132">
-        <v>1010</v>
-      </c>
-      <c r="F132" t="s">
-        <v>622</v>
-      </c>
-      <c r="G132">
-        <v>7</v>
-      </c>
-      <c r="H132">
-        <v>7</v>
-      </c>
-      <c r="I132">
-        <v>21.94</v>
-      </c>
-      <c r="J132">
-        <v>995</v>
-      </c>
-      <c r="K132">
-        <v>0</v>
-      </c>
-      <c r="L132">
-        <v>0</v>
-      </c>
-      <c r="M132">
-        <v>-2.059999999999999</v>
-      </c>
-      <c r="N132">
-        <v>-15</v>
-      </c>
-      <c r="O132">
-        <v>0</v>
-      </c>
-      <c r="P132" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q132">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133" t="s">
-        <v>579</v>
-      </c>
-      <c r="C133" t="s">
-        <v>144</v>
-      </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
-      <c r="E133">
-        <v>33</v>
-      </c>
-      <c r="F133" t="s">
-        <v>623</v>
-      </c>
-      <c r="G133">
-        <v>11</v>
-      </c>
-      <c r="H133">
-        <v>11</v>
-      </c>
-      <c r="I133">
-        <v>0</v>
-      </c>
-      <c r="J133">
-        <v>0</v>
-      </c>
-      <c r="K133">
-        <v>0</v>
-      </c>
-      <c r="L133">
-        <v>0</v>
-      </c>
-      <c r="M133">
-        <v>-1</v>
-      </c>
-      <c r="N133">
-        <v>-33</v>
-      </c>
-      <c r="O133">
-        <v>0</v>
-      </c>
-      <c r="P133" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q133">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134" t="s">
-        <v>601</v>
-      </c>
-      <c r="C134" t="s">
-        <v>145</v>
-      </c>
-      <c r="D134">
-        <v>2</v>
-      </c>
-      <c r="E134">
-        <v>460</v>
-      </c>
-      <c r="F134" t="s">
-        <v>623</v>
-      </c>
-      <c r="G134">
-        <v>3</v>
-      </c>
-      <c r="H134">
-        <v>3</v>
-      </c>
-      <c r="I134">
-        <v>2</v>
-      </c>
-      <c r="J134">
-        <v>490</v>
-      </c>
-      <c r="K134">
-        <v>0</v>
-      </c>
-      <c r="L134">
-        <v>0</v>
-      </c>
-      <c r="M134">
-        <v>0</v>
-      </c>
-      <c r="N134">
-        <v>30</v>
-      </c>
-      <c r="O134">
-        <v>0</v>
-      </c>
-      <c r="P134">
-        <v>0</v>
-      </c>
-      <c r="Q134">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135" t="s">
-        <v>552</v>
-      </c>
-      <c r="C135" t="s">
-        <v>145</v>
-      </c>
-      <c r="D135">
-        <v>5</v>
-      </c>
-      <c r="E135">
-        <v>200</v>
-      </c>
-      <c r="F135" t="s">
-        <v>623</v>
-      </c>
-      <c r="G135">
-        <v>4</v>
-      </c>
-      <c r="H135">
-        <v>4</v>
-      </c>
-      <c r="I135">
-        <v>5</v>
-      </c>
-      <c r="J135">
-        <v>300</v>
-      </c>
-      <c r="K135">
-        <v>0</v>
-      </c>
-      <c r="L135">
-        <v>0</v>
-      </c>
-      <c r="M135">
-        <v>0</v>
-      </c>
-      <c r="N135">
-        <v>100</v>
-      </c>
-      <c r="O135">
-        <v>0</v>
-      </c>
-      <c r="P135">
-        <v>0</v>
-      </c>
-      <c r="Q135">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136" t="s">
-        <v>257</v>
-      </c>
-      <c r="C136" t="s">
-        <v>145</v>
-      </c>
-      <c r="D136">
-        <v>3</v>
-      </c>
-      <c r="E136">
-        <v>30</v>
-      </c>
-      <c r="F136" t="s">
-        <v>623</v>
-      </c>
-      <c r="G136">
-        <v>1</v>
-      </c>
-      <c r="H136">
-        <v>1</v>
-      </c>
-      <c r="I136">
-        <v>3</v>
-      </c>
-      <c r="J136">
-        <v>37</v>
-      </c>
-      <c r="K136">
-        <v>0</v>
-      </c>
-      <c r="L136">
-        <v>0</v>
-      </c>
-      <c r="M136">
-        <v>0</v>
-      </c>
-      <c r="N136">
-        <v>7</v>
-      </c>
-      <c r="O136">
-        <v>0</v>
-      </c>
-      <c r="P136">
-        <v>0</v>
-      </c>
-      <c r="Q136">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137" t="s">
-        <v>535</v>
-      </c>
-      <c r="C137" t="s">
-        <v>146</v>
-      </c>
-      <c r="D137">
-        <v>23.17</v>
-      </c>
-      <c r="E137">
-        <v>900</v>
-      </c>
-      <c r="F137" t="s">
-        <v>213</v>
-      </c>
-      <c r="G137">
-        <v>11</v>
-      </c>
-      <c r="H137">
-        <v>11</v>
-      </c>
-      <c r="I137">
-        <v>17.06</v>
-      </c>
-      <c r="J137">
-        <v>551</v>
-      </c>
-      <c r="K137">
-        <v>0</v>
-      </c>
-      <c r="L137">
-        <v>0</v>
-      </c>
-      <c r="M137">
-        <v>-6.110000000000003</v>
-      </c>
-      <c r="N137">
-        <v>-349</v>
-      </c>
-      <c r="O137">
-        <v>0</v>
-      </c>
-      <c r="P137" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q137">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138" t="s">
-        <v>552</v>
-      </c>
-      <c r="C138" t="s">
-        <v>145</v>
-      </c>
-      <c r="D138">
-        <v>7</v>
-      </c>
-      <c r="E138">
-        <v>280</v>
-      </c>
-      <c r="F138" t="s">
-        <v>213</v>
-      </c>
-      <c r="G138">
-        <v>4</v>
-      </c>
-      <c r="H138">
-        <v>4</v>
-      </c>
-      <c r="I138">
-        <v>7</v>
-      </c>
-      <c r="J138">
-        <v>301.63</v>
-      </c>
-      <c r="K138">
-        <v>0</v>
-      </c>
-      <c r="L138">
-        <v>0</v>
-      </c>
-      <c r="M138">
-        <v>0</v>
-      </c>
-      <c r="N138">
-        <v>21.63</v>
-      </c>
-      <c r="O138">
-        <v>0</v>
-      </c>
-      <c r="P138">
-        <v>0</v>
-      </c>
-      <c r="Q138">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139" t="s">
-        <v>553</v>
-      </c>
-      <c r="C139" t="s">
-        <v>145</v>
-      </c>
-      <c r="D139">
-        <v>9</v>
-      </c>
-      <c r="E139">
-        <v>90</v>
-      </c>
-      <c r="F139" t="s">
-        <v>213</v>
-      </c>
-      <c r="G139">
-        <v>1</v>
-      </c>
-      <c r="H139">
-        <v>1</v>
-      </c>
-      <c r="I139">
-        <v>9</v>
-      </c>
-      <c r="J139">
-        <v>107.07</v>
-      </c>
-      <c r="K139">
-        <v>0</v>
-      </c>
-      <c r="L139">
-        <v>0</v>
-      </c>
-      <c r="M139">
-        <v>0</v>
-      </c>
-      <c r="N139">
-        <v>17.06999999999999</v>
-      </c>
-      <c r="O139">
-        <v>0</v>
-      </c>
-      <c r="P139">
-        <v>0</v>
-      </c>
-      <c r="Q139">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140" t="s">
-        <v>537</v>
-      </c>
-      <c r="C140" t="s">
-        <v>146</v>
-      </c>
-      <c r="D140">
-        <v>13</v>
-      </c>
-      <c r="E140">
-        <v>325</v>
-      </c>
-      <c r="F140" t="s">
-        <v>213</v>
-      </c>
-      <c r="G140">
-        <v>7</v>
-      </c>
-      <c r="H140">
-        <v>7</v>
-      </c>
-      <c r="I140">
-        <v>13.928</v>
-      </c>
-      <c r="J140">
-        <v>603.75</v>
-      </c>
-      <c r="K140">
-        <v>0</v>
-      </c>
-      <c r="L140">
-        <v>0</v>
-      </c>
-      <c r="M140">
-        <v>0.9280000000000008</v>
-      </c>
-      <c r="N140">
-        <v>278.75</v>
-      </c>
-      <c r="O140">
-        <v>0</v>
-      </c>
-      <c r="P140" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q140">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141" t="s">
-        <v>602</v>
-      </c>
-      <c r="C141" t="s">
-        <v>146</v>
-      </c>
-      <c r="D141">
-        <v>21.44</v>
-      </c>
-      <c r="E141">
-        <v>1198</v>
-      </c>
-      <c r="F141" t="s">
-        <v>214</v>
-      </c>
-      <c r="G141">
-        <v>7</v>
-      </c>
-      <c r="H141">
-        <v>7</v>
-      </c>
-      <c r="I141">
-        <v>36.58</v>
-      </c>
-      <c r="J141">
-        <v>1275</v>
-      </c>
-      <c r="K141">
-        <v>0</v>
-      </c>
-      <c r="L141">
-        <v>0</v>
-      </c>
-      <c r="M141">
-        <v>15.14</v>
-      </c>
-      <c r="N141">
-        <v>77</v>
-      </c>
-      <c r="O141">
-        <v>0</v>
-      </c>
-      <c r="P141" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q141">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142" t="s">
-        <v>581</v>
-      </c>
-      <c r="C142" t="s">
-        <v>145</v>
-      </c>
-      <c r="D142">
-        <v>4</v>
-      </c>
-      <c r="E142">
-        <v>600</v>
-      </c>
-      <c r="F142" t="s">
-        <v>215</v>
-      </c>
-      <c r="G142">
-        <v>3</v>
-      </c>
-      <c r="H142">
-        <v>3</v>
-      </c>
-      <c r="I142">
-        <v>1</v>
-      </c>
-      <c r="J142">
-        <v>221.62</v>
-      </c>
-      <c r="K142">
-        <v>0</v>
-      </c>
-      <c r="L142">
-        <v>0</v>
-      </c>
-      <c r="M142">
-        <v>-3</v>
-      </c>
-      <c r="N142">
-        <v>-378.38</v>
-      </c>
-      <c r="O142">
-        <v>0</v>
-      </c>
-      <c r="P142">
-        <v>0</v>
-      </c>
-      <c r="Q142">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143" t="s">
-        <v>601</v>
-      </c>
-      <c r="C143" t="s">
-        <v>145</v>
-      </c>
-      <c r="D143">
-        <v>2</v>
-      </c>
-      <c r="E143">
-        <v>430</v>
-      </c>
-      <c r="F143" t="s">
-        <v>215</v>
-      </c>
-      <c r="G143">
-        <v>3</v>
-      </c>
-      <c r="H143">
-        <v>3</v>
-      </c>
-      <c r="I143">
-        <v>1</v>
-      </c>
-      <c r="J143">
-        <v>345.16</v>
-      </c>
-      <c r="K143">
-        <v>0</v>
-      </c>
-      <c r="L143">
-        <v>0</v>
-      </c>
-      <c r="M143">
-        <v>-1</v>
-      </c>
-      <c r="N143">
-        <v>-84.83999999999997</v>
-      </c>
-      <c r="O143">
-        <v>0</v>
-      </c>
-      <c r="P143">
-        <v>0</v>
-      </c>
-      <c r="Q143">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144" t="s">
-        <v>554</v>
-      </c>
-      <c r="C144" t="s">
-        <v>145</v>
-      </c>
-      <c r="D144">
-        <v>2</v>
-      </c>
-      <c r="E144">
-        <v>350</v>
-      </c>
-      <c r="F144" t="s">
-        <v>215</v>
-      </c>
-      <c r="G144">
-        <v>5</v>
-      </c>
-      <c r="H144">
-        <v>5</v>
-      </c>
-      <c r="I144">
-        <v>3</v>
-      </c>
-      <c r="J144">
-        <v>578.71</v>
-      </c>
-      <c r="K144">
-        <v>0</v>
-      </c>
-      <c r="L144">
-        <v>0</v>
-      </c>
-      <c r="M144">
-        <v>1</v>
-      </c>
-      <c r="N144">
-        <v>228.71</v>
-      </c>
-      <c r="O144">
-        <v>0</v>
-      </c>
-      <c r="P144">
-        <v>0</v>
-      </c>
-      <c r="Q144">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145" t="s">
-        <v>544</v>
-      </c>
-      <c r="C145" t="s">
-        <v>145</v>
-      </c>
-      <c r="D145">
-        <v>1</v>
-      </c>
-      <c r="E145">
-        <v>190</v>
-      </c>
-      <c r="F145" t="s">
-        <v>215</v>
-      </c>
-      <c r="G145">
-        <v>5</v>
-      </c>
-      <c r="H145">
-        <v>5</v>
-      </c>
-      <c r="I145">
-        <v>1</v>
-      </c>
-      <c r="J145">
-        <v>259.36</v>
-      </c>
-      <c r="K145">
-        <v>0</v>
-      </c>
-      <c r="L145">
-        <v>0</v>
-      </c>
-      <c r="M145">
-        <v>0</v>
-      </c>
-      <c r="N145">
-        <v>69.36000000000001</v>
-      </c>
-      <c r="O145">
-        <v>0</v>
-      </c>
-      <c r="P145">
-        <v>0</v>
-      </c>
-      <c r="Q145">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="B146" t="s">
-        <v>535</v>
-      </c>
-      <c r="C146" t="s">
-        <v>144</v>
-      </c>
-      <c r="D146">
-        <v>41.05</v>
-      </c>
-      <c r="E146">
-        <v>1100</v>
-      </c>
-      <c r="F146" t="s">
-        <v>216</v>
-      </c>
-      <c r="G146">
-        <v>11</v>
-      </c>
-      <c r="H146">
-        <v>11</v>
-      </c>
-      <c r="I146">
-        <v>34.94</v>
-      </c>
-      <c r="J146">
-        <v>1564</v>
-      </c>
-      <c r="K146">
-        <v>0</v>
-      </c>
-      <c r="L146">
-        <v>0</v>
-      </c>
-      <c r="M146">
-        <v>-6.109999999999999</v>
-      </c>
-      <c r="N146">
-        <v>464</v>
-      </c>
-      <c r="O146">
-        <v>0</v>
-      </c>
-      <c r="P146" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q146">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147" t="s">
-        <v>601</v>
-      </c>
-      <c r="C147" t="s">
-        <v>145</v>
-      </c>
-      <c r="D147">
-        <v>1</v>
-      </c>
-      <c r="E147">
-        <v>235</v>
-      </c>
-      <c r="F147" t="s">
-        <v>217</v>
-      </c>
-      <c r="G147">
-        <v>3</v>
-      </c>
-      <c r="H147">
-        <v>3</v>
-      </c>
-      <c r="I147">
-        <v>1</v>
-      </c>
-      <c r="J147">
-        <v>270</v>
-      </c>
-      <c r="K147">
-        <v>0</v>
-      </c>
-      <c r="L147">
-        <v>0</v>
-      </c>
-      <c r="M147">
-        <v>0</v>
-      </c>
-      <c r="N147">
-        <v>35</v>
-      </c>
-      <c r="O147">
-        <v>0</v>
-      </c>
-      <c r="P147">
-        <v>0</v>
-      </c>
-      <c r="Q147">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="148" spans="1:17">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148" t="s">
-        <v>597</v>
-      </c>
-      <c r="C148" t="s">
-        <v>145</v>
-      </c>
-      <c r="D148">
-        <v>1</v>
-      </c>
-      <c r="E148">
-        <v>330</v>
-      </c>
-      <c r="F148" t="s">
-        <v>217</v>
-      </c>
-      <c r="G148">
-        <v>3</v>
-      </c>
-      <c r="H148">
-        <v>3</v>
-      </c>
-      <c r="I148">
-        <v>1</v>
-      </c>
-      <c r="J148">
-        <v>318</v>
-      </c>
-      <c r="K148">
-        <v>0</v>
-      </c>
-      <c r="L148">
-        <v>0</v>
-      </c>
-      <c r="M148">
-        <v>0</v>
-      </c>
-      <c r="N148">
-        <v>-12</v>
-      </c>
-      <c r="O148">
-        <v>0</v>
-      </c>
-      <c r="P148">
-        <v>0</v>
-      </c>
-      <c r="Q148">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149" t="s">
-        <v>544</v>
-      </c>
-      <c r="C149" t="s">
-        <v>145</v>
-      </c>
-      <c r="D149">
-        <v>1</v>
-      </c>
-      <c r="E149">
-        <v>190</v>
-      </c>
-      <c r="F149" t="s">
-        <v>217</v>
-      </c>
-      <c r="G149">
-        <v>5</v>
-      </c>
-      <c r="H149">
-        <v>5</v>
-      </c>
-      <c r="I149">
-        <v>1</v>
-      </c>
-      <c r="J149">
-        <v>290</v>
-      </c>
-      <c r="K149">
-        <v>0</v>
-      </c>
-      <c r="L149">
-        <v>0</v>
-      </c>
-      <c r="M149">
-        <v>0</v>
-      </c>
-      <c r="N149">
-        <v>100</v>
-      </c>
-      <c r="O149">
-        <v>0</v>
-      </c>
-      <c r="P149">
-        <v>0</v>
-      </c>
-      <c r="Q149">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="150" spans="1:17">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150" t="s">
-        <v>554</v>
-      </c>
-      <c r="C150" t="s">
-        <v>145</v>
-      </c>
-      <c r="D150">
-        <v>5</v>
-      </c>
-      <c r="E150">
-        <v>665</v>
-      </c>
-      <c r="F150" t="s">
-        <v>217</v>
-      </c>
-      <c r="G150">
-        <v>5</v>
-      </c>
-      <c r="H150">
-        <v>5</v>
-      </c>
-      <c r="I150">
-        <v>3</v>
-      </c>
-      <c r="J150">
-        <v>722</v>
-      </c>
-      <c r="K150">
-        <v>0</v>
-      </c>
-      <c r="L150">
-        <v>0</v>
-      </c>
-      <c r="M150">
-        <v>-2</v>
-      </c>
-      <c r="N150">
-        <v>57</v>
-      </c>
-      <c r="O150">
-        <v>0</v>
-      </c>
-      <c r="P150">
-        <v>0</v>
-      </c>
-      <c r="Q150">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151" t="s">
-        <v>552</v>
-      </c>
-      <c r="C151" t="s">
-        <v>145</v>
-      </c>
-      <c r="D151">
-        <v>1</v>
-      </c>
-      <c r="E151">
-        <v>40</v>
-      </c>
-      <c r="F151" t="s">
-        <v>218</v>
-      </c>
-      <c r="G151">
-        <v>4</v>
-      </c>
-      <c r="H151">
-        <v>4</v>
-      </c>
-      <c r="I151">
-        <v>1</v>
-      </c>
-      <c r="J151">
-        <v>45.13</v>
-      </c>
-      <c r="K151">
-        <v>0</v>
-      </c>
-      <c r="L151">
-        <v>0</v>
-      </c>
-      <c r="M151">
-        <v>0</v>
-      </c>
-      <c r="N151">
-        <v>5.130000000000003</v>
-      </c>
-      <c r="O151">
-        <v>0</v>
-      </c>
-      <c r="P151">
-        <v>0</v>
-      </c>
-      <c r="Q151">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="152" spans="1:17">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152" t="s">
-        <v>553</v>
-      </c>
-      <c r="C152" t="s">
-        <v>145</v>
-      </c>
-      <c r="D152">
-        <v>12</v>
-      </c>
-      <c r="E152">
-        <v>120</v>
-      </c>
-      <c r="F152" t="s">
-        <v>218</v>
-      </c>
-      <c r="G152">
-        <v>1</v>
-      </c>
-      <c r="H152">
-        <v>1</v>
-      </c>
-      <c r="I152">
-        <v>12</v>
-      </c>
-      <c r="J152">
-        <v>131.28</v>
-      </c>
-      <c r="K152">
-        <v>0</v>
-      </c>
-      <c r="L152">
-        <v>0</v>
-      </c>
-      <c r="M152">
-        <v>0</v>
-      </c>
-      <c r="N152">
-        <v>11.28</v>
-      </c>
-      <c r="O152">
-        <v>0</v>
-      </c>
-      <c r="P152">
-        <v>0</v>
-      </c>
-      <c r="Q152">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="153" spans="1:17">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153" t="s">
-        <v>603</v>
-      </c>
-      <c r="C153" t="s">
-        <v>144</v>
-      </c>
-      <c r="D153">
-        <v>30.375</v>
-      </c>
-      <c r="E153">
-        <v>323</v>
-      </c>
-      <c r="F153" t="s">
-        <v>218</v>
-      </c>
-      <c r="G153">
-        <v>7</v>
-      </c>
-      <c r="H153">
-        <v>7</v>
-      </c>
-      <c r="I153">
-        <v>66.04300000000001</v>
-      </c>
-      <c r="J153">
-        <v>1423.59</v>
-      </c>
-      <c r="K153">
-        <v>0</v>
-      </c>
-      <c r="L153">
-        <v>0</v>
-      </c>
-      <c r="M153">
-        <v>35.66800000000001</v>
-      </c>
-      <c r="N153">
-        <v>1100.59</v>
-      </c>
-      <c r="O153">
-        <v>0</v>
-      </c>
-      <c r="P153" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q153">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154" t="s">
-        <v>535</v>
-      </c>
-      <c r="C154" t="s">
-        <v>144</v>
-      </c>
-      <c r="D154">
-        <v>7.22</v>
-      </c>
-      <c r="E154">
-        <v>229</v>
-      </c>
-      <c r="F154" t="s">
-        <v>219</v>
-      </c>
-      <c r="G154">
-        <v>11</v>
-      </c>
-      <c r="H154">
-        <v>11</v>
-      </c>
-      <c r="I154">
-        <v>3.545</v>
-      </c>
-      <c r="J154">
-        <v>1474.48</v>
-      </c>
-      <c r="K154">
-        <v>0</v>
-      </c>
-      <c r="L154">
-        <v>0</v>
-      </c>
-      <c r="M154">
-        <v>-3.675</v>
-      </c>
-      <c r="N154">
-        <v>1245.48</v>
-      </c>
-      <c r="O154">
-        <v>0</v>
-      </c>
-      <c r="P154" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q154">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155" t="s">
-        <v>552</v>
-      </c>
-      <c r="C155" t="s">
-        <v>145</v>
-      </c>
-      <c r="D155">
-        <v>6</v>
-      </c>
-      <c r="E155">
-        <v>180</v>
-      </c>
-      <c r="F155" t="s">
-        <v>219</v>
-      </c>
-      <c r="G155">
-        <v>4</v>
-      </c>
-      <c r="H155">
-        <v>4</v>
-      </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
-      <c r="J155">
-        <v>0</v>
-      </c>
-      <c r="K155">
-        <v>0</v>
-      </c>
-      <c r="L155">
-        <v>0</v>
-      </c>
-      <c r="M155">
-        <v>-6</v>
-      </c>
-      <c r="N155">
-        <v>-180</v>
-      </c>
-      <c r="O155">
-        <v>0</v>
-      </c>
-      <c r="P155">
-        <v>0</v>
-      </c>
-      <c r="Q155">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156" t="s">
-        <v>604</v>
-      </c>
-      <c r="C156" t="s">
-        <v>145</v>
-      </c>
-      <c r="D156">
-        <v>1</v>
-      </c>
-      <c r="E156">
-        <v>226</v>
-      </c>
-      <c r="F156" t="s">
-        <v>219</v>
-      </c>
-      <c r="G156">
-        <v>3</v>
-      </c>
-      <c r="H156">
-        <v>3</v>
-      </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156">
-        <v>0</v>
-      </c>
-      <c r="K156">
-        <v>0</v>
-      </c>
-      <c r="L156">
-        <v>0</v>
-      </c>
-      <c r="M156">
-        <v>-1</v>
-      </c>
-      <c r="N156">
-        <v>-226</v>
-      </c>
-      <c r="O156">
-        <v>0</v>
-      </c>
-      <c r="P156">
-        <v>0</v>
-      </c>
-      <c r="Q156">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="157" spans="1:17">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157" t="s">
-        <v>582</v>
-      </c>
-      <c r="C157" t="s">
-        <v>145</v>
-      </c>
-      <c r="D157">
-        <v>1</v>
-      </c>
-      <c r="E157">
-        <v>180</v>
-      </c>
-      <c r="F157" t="s">
-        <v>219</v>
-      </c>
-      <c r="G157">
-        <v>3</v>
-      </c>
-      <c r="H157">
-        <v>3</v>
-      </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-      <c r="K157">
-        <v>0</v>
-      </c>
-      <c r="L157">
-        <v>0</v>
-      </c>
-      <c r="M157">
-        <v>-1</v>
-      </c>
-      <c r="N157">
-        <v>-180</v>
-      </c>
-      <c r="O157">
-        <v>0</v>
-      </c>
-      <c r="P157">
-        <v>0</v>
-      </c>
-      <c r="Q157">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="158" spans="1:17">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158" t="s">
-        <v>605</v>
-      </c>
-      <c r="C158" t="s">
-        <v>145</v>
-      </c>
-      <c r="D158">
-        <v>1</v>
-      </c>
-      <c r="E158">
-        <v>130</v>
-      </c>
-      <c r="F158" t="s">
-        <v>219</v>
-      </c>
-      <c r="G158">
-        <v>3</v>
-      </c>
-      <c r="H158">
-        <v>3</v>
-      </c>
-      <c r="I158">
-        <v>0</v>
-      </c>
-      <c r="J158">
-        <v>0</v>
-      </c>
-      <c r="K158">
-        <v>0</v>
-      </c>
-      <c r="L158">
-        <v>0</v>
-      </c>
-      <c r="M158">
-        <v>-1</v>
-      </c>
-      <c r="N158">
-        <v>-130</v>
-      </c>
-      <c r="O158">
-        <v>0</v>
-      </c>
-      <c r="P158">
-        <v>0</v>
-      </c>
-      <c r="Q158">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159" t="s">
-        <v>606</v>
-      </c>
-      <c r="C159" t="s">
-        <v>609</v>
-      </c>
-      <c r="D159">
-        <v>1</v>
-      </c>
-      <c r="E159">
-        <v>10</v>
-      </c>
-      <c r="F159" t="s">
-        <v>219</v>
-      </c>
-      <c r="G159">
-        <v>3</v>
-      </c>
-      <c r="H159">
-        <v>3</v>
-      </c>
-      <c r="I159">
-        <v>0</v>
-      </c>
-      <c r="J159">
-        <v>0</v>
-      </c>
-      <c r="K159">
-        <v>0</v>
-      </c>
-      <c r="L159">
-        <v>0</v>
-      </c>
-      <c r="M159">
-        <v>-1</v>
-      </c>
-      <c r="N159">
-        <v>-10</v>
-      </c>
-      <c r="O159">
-        <v>0</v>
-      </c>
-      <c r="P159">
-        <v>0</v>
-      </c>
-      <c r="Q159">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160" t="s">
-        <v>554</v>
-      </c>
-      <c r="C160" t="s">
-        <v>145</v>
-      </c>
-      <c r="D160">
-        <v>6</v>
-      </c>
-      <c r="E160">
-        <v>330</v>
-      </c>
-      <c r="F160" t="s">
-        <v>624</v>
-      </c>
-      <c r="G160">
-        <v>5</v>
-      </c>
-      <c r="H160">
-        <v>5</v>
-      </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
-      <c r="J160">
-        <v>0</v>
-      </c>
-      <c r="K160">
-        <v>0</v>
-      </c>
-      <c r="L160">
-        <v>0</v>
-      </c>
-      <c r="M160">
-        <v>-6</v>
-      </c>
-      <c r="N160">
-        <v>-330</v>
-      </c>
-      <c r="O160">
-        <v>0</v>
-      </c>
-      <c r="P160">
-        <v>0</v>
-      </c>
-      <c r="Q160">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="161" spans="1:17">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161" t="s">
-        <v>544</v>
-      </c>
-      <c r="C161" t="s">
-        <v>145</v>
-      </c>
-      <c r="D161">
-        <v>1</v>
-      </c>
-      <c r="E161">
-        <v>100</v>
-      </c>
-      <c r="F161" t="s">
-        <v>624</v>
-      </c>
-      <c r="G161">
-        <v>0</v>
-      </c>
-      <c r="H161">
-        <v>0</v>
-      </c>
-      <c r="I161">
-        <v>0</v>
-      </c>
-      <c r="J161">
-        <v>0</v>
-      </c>
-      <c r="K161">
-        <v>0</v>
-      </c>
-      <c r="L161">
-        <v>0</v>
-      </c>
-      <c r="M161">
-        <v>-1</v>
-      </c>
-      <c r="N161">
-        <v>-100</v>
-      </c>
-      <c r="O161">
-        <v>0</v>
-      </c>
-      <c r="P161">
-        <v>0</v>
-      </c>
-      <c r="Q161">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162" t="s">
-        <v>553</v>
-      </c>
-      <c r="C162" t="s">
-        <v>145</v>
-      </c>
-      <c r="D162">
-        <v>4</v>
-      </c>
-      <c r="E162">
-        <v>40</v>
-      </c>
-      <c r="F162" t="s">
-        <v>624</v>
-      </c>
-      <c r="G162">
-        <v>1</v>
-      </c>
-      <c r="H162">
-        <v>1</v>
-      </c>
-      <c r="I162">
-        <v>0</v>
-      </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
-      <c r="K162">
-        <v>0</v>
-      </c>
-      <c r="L162">
-        <v>0</v>
-      </c>
-      <c r="M162">
-        <v>-4</v>
-      </c>
-      <c r="N162">
-        <v>-40</v>
-      </c>
-      <c r="O162">
-        <v>0</v>
-      </c>
-      <c r="P162">
-        <v>0</v>
-      </c>
-      <c r="Q162">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163" t="s">
-        <v>607</v>
-      </c>
-      <c r="C163" t="s">
-        <v>144</v>
-      </c>
-      <c r="D163">
-        <v>6.1</v>
-      </c>
-      <c r="E163">
-        <v>90</v>
-      </c>
-      <c r="F163" t="s">
-        <v>624</v>
-      </c>
-      <c r="G163">
-        <v>7</v>
-      </c>
-      <c r="H163">
-        <v>7</v>
-      </c>
-      <c r="I163">
-        <v>0</v>
-      </c>
-      <c r="J163">
-        <v>0</v>
-      </c>
-      <c r="K163">
-        <v>0</v>
-      </c>
-      <c r="L163">
-        <v>0</v>
-      </c>
-      <c r="M163">
-        <v>-6.1</v>
-      </c>
-      <c r="N163">
-        <v>-90</v>
-      </c>
-      <c r="O163">
-        <v>0</v>
-      </c>
-      <c r="P163" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q163">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164" t="s">
-        <v>608</v>
-      </c>
-      <c r="C164" t="s">
-        <v>145</v>
-      </c>
-      <c r="D164">
-        <v>4</v>
-      </c>
-      <c r="E164">
-        <v>100</v>
-      </c>
-      <c r="F164" t="s">
-        <v>168</v>
-      </c>
-      <c r="G164">
-        <v>16</v>
-      </c>
-      <c r="H164">
-        <v>16</v>
-      </c>
-      <c r="I164">
-        <v>4</v>
-      </c>
-      <c r="J164">
-        <v>175</v>
-      </c>
-      <c r="K164">
-        <v>0</v>
-      </c>
-      <c r="L164">
-        <v>0</v>
-      </c>
-      <c r="M164">
-        <v>0</v>
-      </c>
-      <c r="N164">
-        <v>75</v>
-      </c>
-      <c r="O164">
-        <v>0</v>
-      </c>
-      <c r="P164">
-        <v>0</v>
-      </c>
-      <c r="Q164">
-        <v>164</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V31"/>

--- a/IMED/DPP_Revised/dframes.xlsx
+++ b/IMED/DPP_Revised/dframes.xlsx
@@ -6949,7 +6949,7 @@
         <v>2.66</v>
       </c>
       <c r="F121">
-        <v>1122.28</v>
+        <v>1200.28</v>
       </c>
       <c r="G121" t="s">
         <v>161</v>
@@ -7028,10 +7028,10 @@
         <v>144</v>
       </c>
       <c r="E123">
-        <v>2.275</v>
+        <v>2.245</v>
       </c>
       <c r="F123">
-        <v>1742.1</v>
+        <v>1468.43</v>
       </c>
       <c r="G123" t="s">
         <v>162</v>
@@ -7069,10 +7069,10 @@
         <v>144</v>
       </c>
       <c r="E124">
-        <v>2.206</v>
+        <v>2.236</v>
       </c>
       <c r="F124">
-        <v>1203.35</v>
+        <v>1477.02</v>
       </c>
       <c r="G124" t="s">
         <v>163</v>
@@ -13076,10 +13076,10 @@
         <v>80</v>
       </c>
       <c r="J51">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K51">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="L51">
         <v>0</v>
@@ -13088,13 +13088,13 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="O51">
         <v>0</v>
       </c>
       <c r="P51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q51">
         <v>0</v>
@@ -13103,7 +13103,7 @@
         <v>0</v>
       </c>
       <c r="S51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T51">
         <v>51</v>
@@ -13115,7 +13115,7 @@
         <v>51</v>
       </c>
       <c r="W51">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="X51" t="s">
         <v>147</v>
@@ -13153,7 +13153,7 @@
         <v>81</v>
       </c>
       <c r="J52">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K52">
         <v>13.75</v>
@@ -13192,7 +13192,7 @@
         <v>52</v>
       </c>
       <c r="W52">
-        <v>1.25</v>
+        <v>0.98</v>
       </c>
       <c r="X52" t="s">
         <v>147</v>
@@ -13541,7 +13541,7 @@
         <v>470</v>
       </c>
       <c r="K57">
-        <v>20158</v>
+        <v>20000</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -13550,13 +13550,13 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>20158</v>
+        <v>20000</v>
       </c>
       <c r="O57">
         <v>0</v>
       </c>
       <c r="P57">
-        <v>-3842</v>
+        <v>-4000</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -13565,7 +13565,7 @@
         <v>0</v>
       </c>
       <c r="S57">
-        <v>-3842</v>
+        <v>-4000</v>
       </c>
       <c r="T57">
         <v>57</v>
@@ -13577,7 +13577,7 @@
         <v>57</v>
       </c>
       <c r="W57">
-        <v>42.89</v>
+        <v>42.55</v>
       </c>
       <c r="X57" t="s">
         <v>427</v>
@@ -14157,7 +14157,7 @@
         <v>261.653</v>
       </c>
       <c r="K65">
-        <v>6727.848199999996</v>
+        <v>6805.848199999998</v>
       </c>
       <c r="L65">
         <v>12863.8618</v>
@@ -14166,13 +14166,13 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <v>19591.71</v>
+        <v>19669.71</v>
       </c>
       <c r="O65">
         <v>0</v>
       </c>
       <c r="P65">
-        <v>5293.548199999996</v>
+        <v>5371.548199999997</v>
       </c>
       <c r="Q65">
         <v>2345.661800000002</v>
@@ -14181,7 +14181,7 @@
         <v>0</v>
       </c>
       <c r="S65">
-        <v>7639.209999999997</v>
+        <v>7717.209999999999</v>
       </c>
       <c r="T65">
         <v>65</v>
@@ -14542,7 +14542,7 @@
         <v>149</v>
       </c>
       <c r="K70">
-        <v>30.51</v>
+        <v>49.51</v>
       </c>
       <c r="L70">
         <v>0</v>
@@ -14551,13 +14551,13 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>30.51</v>
+        <v>49.51</v>
       </c>
       <c r="O70">
         <v>0</v>
       </c>
       <c r="P70">
-        <v>-69.48999999999999</v>
+        <v>-50.49</v>
       </c>
       <c r="Q70">
         <v>-158</v>
@@ -14566,7 +14566,7 @@
         <v>0</v>
       </c>
       <c r="S70">
-        <v>-227.49</v>
+        <v>-208.49</v>
       </c>
       <c r="T70">
         <v>70</v>
@@ -15037,7 +15037,7 @@
         <v>245</v>
       </c>
       <c r="H6">
-        <v>0.00245</v>
+        <v>0.00246</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -15105,7 +15105,7 @@
         <v>2874.35</v>
       </c>
       <c r="H7">
-        <v>0.02879</v>
+        <v>0.02881</v>
       </c>
       <c r="I7">
         <v>223.75</v>
@@ -16125,7 +16125,7 @@
         <v>2957.63</v>
       </c>
       <c r="H22">
-        <v>0.02962</v>
+        <v>0.02964</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -16193,7 +16193,7 @@
         <v>1043.61</v>
       </c>
       <c r="H23">
-        <v>0.01045</v>
+        <v>0.01046</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -16397,7 +16397,7 @@
         <v>7901.4</v>
       </c>
       <c r="H26">
-        <v>0.07914</v>
+        <v>0.07919</v>
       </c>
       <c r="I26">
         <v>849.67</v>
@@ -16805,7 +16805,7 @@
         <v>1700</v>
       </c>
       <c r="H32">
-        <v>0.01703</v>
+        <v>0.01704</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -18088,16 +18088,16 @@
         <v>71</v>
       </c>
       <c r="E51">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="F51">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G51">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="H51">
-        <v>0.00025</v>
+        <v>0.00023</v>
       </c>
       <c r="I51">
         <v>3.88</v>
@@ -18118,7 +18118,7 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>5.030000000000001</v>
+        <v>3.030000000000001</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -18136,7 +18136,7 @@
         <v>19.47</v>
       </c>
       <c r="U51">
-        <v>5.030000000000001</v>
+        <v>3.030000000000001</v>
       </c>
       <c r="V51">
         <v>0.8120000000000001</v>
@@ -18156,10 +18156,10 @@
         <v>72</v>
       </c>
       <c r="E52">
-        <v>1.25</v>
+        <v>0.98</v>
       </c>
       <c r="F52">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G52">
         <v>13.75</v>
@@ -18496,16 +18496,16 @@
         <v>78</v>
       </c>
       <c r="E57">
-        <v>42.89</v>
+        <v>42.55</v>
       </c>
       <c r="F57">
         <v>470</v>
       </c>
       <c r="G57">
-        <v>20158</v>
+        <v>20000</v>
       </c>
       <c r="H57">
-        <v>0.20191</v>
+        <v>0.20045</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -18526,10 +18526,10 @@
         <v>1000</v>
       </c>
       <c r="O57">
-        <v>2417.2</v>
+        <v>2338.2</v>
       </c>
       <c r="P57">
-        <v>2417.2</v>
+        <v>2338.2</v>
       </c>
       <c r="Q57">
         <v>0.5</v>
@@ -18544,7 +18544,7 @@
         <v>15323.6</v>
       </c>
       <c r="U57">
-        <v>4834.4</v>
+        <v>4676.4</v>
       </c>
       <c r="V57">
         <v>0.902</v>
@@ -18641,7 +18641,7 @@
         <v>1175.5</v>
       </c>
       <c r="H59">
-        <v>0.01177</v>
+        <v>0.01178</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -18709,7 +18709,7 @@
         <v>18595.49</v>
       </c>
       <c r="H60">
-        <v>0.18626</v>
+        <v>0.18638</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -18777,7 +18777,7 @@
         <v>10194.13</v>
       </c>
       <c r="H61">
-        <v>0.10211</v>
+        <v>0.10217</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -18845,7 +18845,7 @@
         <v>3397.94</v>
       </c>
       <c r="H62">
-        <v>0.03403</v>
+        <v>0.03406</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -18913,7 +18913,7 @@
         <v>2035.43</v>
       </c>
       <c r="H63">
-        <v>0.02039</v>
+        <v>0.0204</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -18981,7 +18981,7 @@
         <v>1747.81</v>
       </c>
       <c r="H64">
-        <v>0.01751</v>
+        <v>0.01752</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -19046,10 +19046,10 @@
         <v>261.653</v>
       </c>
       <c r="G65">
-        <v>19591.71</v>
+        <v>19669.71</v>
       </c>
       <c r="H65">
-        <v>0.19625</v>
+        <v>0.1971700000000002</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -19070,10 +19070,10 @@
         <v>2923.61</v>
       </c>
       <c r="O65">
-        <v>6113.803199999999</v>
+        <v>6159.043199999999</v>
       </c>
       <c r="P65">
-        <v>4427.2368</v>
+        <v>4459.996799999999</v>
       </c>
       <c r="Q65">
         <v>0.58</v>
@@ -19088,7 +19088,7 @@
         <v>9050.67</v>
       </c>
       <c r="U65">
-        <v>10541.04</v>
+        <v>10619.04</v>
       </c>
       <c r="V65">
         <v>0.761</v>
@@ -19185,7 +19185,7 @@
         <v>225</v>
       </c>
       <c r="H67">
-        <v>0.00225</v>
+        <v>0.00226</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -19386,10 +19386,10 @@
         <v>149</v>
       </c>
       <c r="G70">
-        <v>30.51</v>
+        <v>49.51</v>
       </c>
       <c r="H70">
-        <v>0.00031</v>
+        <v>0.0005</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -19410,10 +19410,10 @@
         <v>0</v>
       </c>
       <c r="O70">
-        <v>16.1703</v>
+        <v>26.2403</v>
       </c>
       <c r="P70">
-        <v>14.3397</v>
+        <v>23.2697</v>
       </c>
       <c r="Q70">
         <v>0.53</v>
@@ -19428,7 +19428,7 @@
         <v>0</v>
       </c>
       <c r="U70">
-        <v>30.51</v>
+        <v>49.51</v>
       </c>
       <c r="V70">
         <v>0.765</v>
@@ -23850,10 +23850,10 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>5.030000000000001</v>
+        <v>3.030000000000001</v>
       </c>
       <c r="N51">
-        <v>5.030000000000001</v>
+        <v>3.030000000000001</v>
       </c>
       <c r="O51">
         <v>0</v>
@@ -23874,13 +23874,13 @@
         <v>0</v>
       </c>
       <c r="U51">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="V51">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="W51">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="X51">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         <v>0</v>
       </c>
       <c r="Z51">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="AA51">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>2417.2</v>
+        <v>2338.2</v>
       </c>
       <c r="N57">
-        <v>2417.2</v>
+        <v>2338.2</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>2417.2</v>
+        <v>2338.2</v>
       </c>
       <c r="R57">
-        <v>2417.2</v>
+        <v>2338.2</v>
       </c>
       <c r="S57">
         <v>0</v>
@@ -24390,13 +24390,13 @@
         <v>0</v>
       </c>
       <c r="U57">
-        <v>20158</v>
+        <v>20000</v>
       </c>
       <c r="V57">
-        <v>19158</v>
+        <v>19000</v>
       </c>
       <c r="W57">
-        <v>19158</v>
+        <v>19000</v>
       </c>
       <c r="X57">
         <v>0</v>
@@ -24405,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="Z57">
-        <v>19158</v>
+        <v>19000</v>
       </c>
       <c r="AA57">
         <v>1000</v>
@@ -25054,46 +25054,46 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>6113.803199999999</v>
+        <v>6159.043199999999</v>
       </c>
       <c r="N65">
-        <v>855.932448</v>
+        <v>862.266048</v>
       </c>
       <c r="O65">
-        <v>5257.870752</v>
+        <v>5296.777151999999</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>4427.2368</v>
+        <v>4459.996799999999</v>
       </c>
       <c r="R65">
-        <v>619.8131520000001</v>
+        <v>624.399552</v>
       </c>
       <c r="S65">
-        <v>3807.423648</v>
+        <v>3835.597247999999</v>
       </c>
       <c r="T65">
         <v>0</v>
       </c>
       <c r="U65">
-        <v>19591.71</v>
+        <v>19669.71</v>
       </c>
       <c r="V65">
-        <v>16668.1</v>
+        <v>16746.1</v>
       </c>
       <c r="W65">
-        <v>2254.7656</v>
+        <v>2265.6856</v>
       </c>
       <c r="X65">
-        <v>14413.3344</v>
+        <v>14480.4144</v>
       </c>
       <c r="Y65">
         <v>0</v>
       </c>
       <c r="Z65">
-        <v>16668.1</v>
+        <v>16746.1</v>
       </c>
       <c r="AA65">
         <v>2923.610000000001</v>
@@ -25484,10 +25484,10 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>16.1703</v>
+        <v>26.2403</v>
       </c>
       <c r="N70">
-        <v>16.1703</v>
+        <v>26.2403</v>
       </c>
       <c r="O70">
         <v>0</v>
@@ -25496,10 +25496,10 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>14.3397</v>
+        <v>23.2697</v>
       </c>
       <c r="R70">
-        <v>14.3397</v>
+        <v>23.2697</v>
       </c>
       <c r="S70">
         <v>0</v>
@@ -25508,13 +25508,13 @@
         <v>0</v>
       </c>
       <c r="U70">
-        <v>30.51</v>
+        <v>49.51</v>
       </c>
       <c r="V70">
-        <v>30.51</v>
+        <v>49.51</v>
       </c>
       <c r="W70">
-        <v>30.51</v>
+        <v>49.51</v>
       </c>
       <c r="X70">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="Z70">
-        <v>30.51</v>
+        <v>49.51</v>
       </c>
       <c r="AA70">
         <v>0</v>
@@ -25776,10 +25776,10 @@
         <v>482</v>
       </c>
       <c r="C8">
-        <v>22799.19504000001</v>
+        <v>22773.50504000001</v>
       </c>
       <c r="D8">
-        <v>18493.98922828</v>
+        <v>18463.23841828</v>
       </c>
       <c r="E8">
         <v>14</v>
@@ -25796,10 +25796,10 @@
         <v>483</v>
       </c>
       <c r="C9">
-        <v>17718.91796</v>
+        <v>17681.60796</v>
       </c>
       <c r="D9">
-        <v>14397.80196172</v>
+        <v>14358.30577172</v>
       </c>
       <c r="E9">
         <v>15</v>
@@ -25973,10 +25973,10 @@
         <v>1066.22</v>
       </c>
       <c r="F7">
-        <v>1054.22</v>
+        <v>1052.22</v>
       </c>
       <c r="G7">
-        <v>-12</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -25996,10 +25996,10 @@
         <v>24000</v>
       </c>
       <c r="F8">
-        <v>20158</v>
+        <v>20000</v>
       </c>
       <c r="G8">
-        <v>-3842</v>
+        <v>-4000</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -26019,10 +26019,10 @@
         <v>53727</v>
       </c>
       <c r="F9">
-        <v>59887.58</v>
+        <v>59965.58</v>
       </c>
       <c r="G9">
-        <v>6160.580000000002</v>
+        <v>6238.580000000002</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -26042,10 +26042,10 @@
         <v>660.14</v>
       </c>
       <c r="F10">
-        <v>40.51000000000001</v>
+        <v>59.51</v>
       </c>
       <c r="G10">
-        <v>-619.63</v>
+        <v>-600.63</v>
       </c>
     </row>
   </sheetData>
@@ -27828,7 +27828,7 @@
         <v>147</v>
       </c>
       <c r="G51">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H51" t="s">
         <v>147</v>
@@ -27863,7 +27863,7 @@
         <v>147</v>
       </c>
       <c r="G52">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
         <v>147</v>
@@ -33479,10 +33479,10 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>5.030000000000001</v>
+        <v>3.030000000000001</v>
       </c>
       <c r="J51">
-        <v>5.030000000000001</v>
+        <v>3.030000000000001</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -33503,10 +33503,10 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="R51">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -33515,10 +33515,10 @@
         <v>0</v>
       </c>
       <c r="U51">
-        <v>5.030000000000001</v>
+        <v>3.030000000000001</v>
       </c>
       <c r="V51">
-        <v>5.030000000000001</v>
+        <v>3.030000000000001</v>
       </c>
       <c r="W51">
         <v>0</v>
@@ -33527,13 +33527,13 @@
         <v>0</v>
       </c>
       <c r="Y51">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="Z51">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="AA51">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="AB51">
         <v>0</v>
@@ -33542,7 +33542,7 @@
         <v>0</v>
       </c>
       <c r="AD51">
-        <v>24.5</v>
+        <v>22.5</v>
       </c>
       <c r="AE51">
         <v>0</v>
@@ -34067,10 +34067,10 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>2417.2</v>
+        <v>2338.2</v>
       </c>
       <c r="J57">
-        <v>2417.2</v>
+        <v>2338.2</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -34079,10 +34079,10 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>2417.2</v>
+        <v>2338.2</v>
       </c>
       <c r="N57">
-        <v>2417.2</v>
+        <v>2338.2</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -34091,10 +34091,10 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>20158</v>
+        <v>20000</v>
       </c>
       <c r="R57">
-        <v>20158</v>
+        <v>20000</v>
       </c>
       <c r="S57">
         <v>0</v>
@@ -34103,10 +34103,10 @@
         <v>0</v>
       </c>
       <c r="U57">
-        <v>4834.4</v>
+        <v>4676.4</v>
       </c>
       <c r="V57">
-        <v>4834.4</v>
+        <v>4676.4</v>
       </c>
       <c r="W57">
         <v>0</v>
@@ -34115,13 +34115,13 @@
         <v>0</v>
       </c>
       <c r="Y57">
-        <v>20158</v>
+        <v>20000</v>
       </c>
       <c r="Z57">
-        <v>20158</v>
+        <v>20000</v>
       </c>
       <c r="AA57">
-        <v>20158</v>
+        <v>20000</v>
       </c>
       <c r="AB57">
         <v>0</v>
@@ -34130,7 +34130,7 @@
         <v>0</v>
       </c>
       <c r="AD57">
-        <v>20158</v>
+        <v>20000</v>
       </c>
       <c r="AE57">
         <v>0</v>
@@ -34851,34 +34851,34 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>6113.803199999999</v>
+        <v>6159.043199999999</v>
       </c>
       <c r="J65">
-        <v>3238.481555039999</v>
+        <v>3283.38592992</v>
       </c>
       <c r="K65">
-        <v>2875.32164496</v>
+        <v>2875.657270079999</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
       <c r="M65">
-        <v>4427.2368</v>
+        <v>4459.996799999999</v>
       </c>
       <c r="N65">
-        <v>2345.107332959999</v>
+        <v>2377.624294079999</v>
       </c>
       <c r="O65">
-        <v>2082.12946704</v>
+        <v>2082.37250592</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>19591.71</v>
+        <v>19669.71</v>
       </c>
       <c r="R65">
-        <v>6727.848199999996</v>
+        <v>6805.848199999998</v>
       </c>
       <c r="S65">
         <v>12863.8618</v>
@@ -34887,10 +34887,10 @@
         <v>0</v>
       </c>
       <c r="U65">
-        <v>10541.04</v>
+        <v>10619.04</v>
       </c>
       <c r="V65">
-        <v>5583.378199999996</v>
+        <v>5661.378199999997</v>
       </c>
       <c r="W65">
         <v>4957.661800000001</v>
@@ -34899,22 +34899,22 @@
         <v>0</v>
       </c>
       <c r="Y65">
-        <v>19591.71</v>
+        <v>19669.71</v>
       </c>
       <c r="Z65">
-        <v>19591.71</v>
+        <v>19669.71</v>
       </c>
       <c r="AA65">
-        <v>6728.058887999999</v>
+        <v>6805.480223999999</v>
       </c>
       <c r="AB65">
-        <v>12863.651112</v>
+        <v>12864.229776</v>
       </c>
       <c r="AC65">
         <v>0</v>
       </c>
       <c r="AD65">
-        <v>19591.71</v>
+        <v>19669.71</v>
       </c>
       <c r="AE65">
         <v>0</v>
@@ -35341,10 +35341,10 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>16.1703</v>
+        <v>26.2403</v>
       </c>
       <c r="J70">
-        <v>16.1703</v>
+        <v>26.2403</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -35353,10 +35353,10 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>14.3397</v>
+        <v>23.2697</v>
       </c>
       <c r="N70">
-        <v>14.3397</v>
+        <v>23.2697</v>
       </c>
       <c r="O70">
         <v>0</v>
@@ -35365,10 +35365,10 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>30.51</v>
+        <v>49.51</v>
       </c>
       <c r="R70">
-        <v>30.51</v>
+        <v>49.51</v>
       </c>
       <c r="S70">
         <v>0</v>
@@ -35377,10 +35377,10 @@
         <v>0</v>
       </c>
       <c r="U70">
-        <v>30.51</v>
+        <v>49.51</v>
       </c>
       <c r="V70">
-        <v>30.51</v>
+        <v>49.51</v>
       </c>
       <c r="W70">
         <v>0</v>
@@ -35389,13 +35389,13 @@
         <v>0</v>
       </c>
       <c r="Y70">
-        <v>30.51</v>
+        <v>49.51</v>
       </c>
       <c r="Z70">
-        <v>30.51</v>
+        <v>49.51</v>
       </c>
       <c r="AA70">
-        <v>30.51</v>
+        <v>49.51</v>
       </c>
       <c r="AB70">
         <v>0</v>
@@ -35404,7 +35404,7 @@
         <v>0</v>
       </c>
       <c r="AD70">
-        <v>30.51</v>
+        <v>49.51</v>
       </c>
       <c r="AE70">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>73.16</v>
+        <v>73.13</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -36106,7 +36106,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>23.594</v>
+        <v>23.624</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>8785.639999999999</v>
+        <v>8589.969999999999</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -38224,7 +38224,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2977.97</v>
+        <v>3251.64</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -41974,7 +41974,7 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2.275</v>
+        <v>2.245</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -42042,7 +42042,7 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2.206</v>
+        <v>2.236</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -45860,7 +45860,7 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1122.28</v>
+        <v>1200.28</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -45996,7 +45996,7 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1742.1</v>
+        <v>1468.43</v>
       </c>
       <c r="O33">
         <v>0</v>
@@ -46064,7 +46064,7 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1203.35</v>
+        <v>1477.02</v>
       </c>
       <c r="O34">
         <v>0</v>
@@ -48239,16 +48239,16 @@
         <v>261.653</v>
       </c>
       <c r="G12">
-        <v>2742.8394</v>
+        <v>2753.7594</v>
       </c>
       <c r="H12">
-        <v>16848.8706</v>
+        <v>16915.9506</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>19591.71</v>
+        <v>19669.71</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -48819,19 +48819,19 @@
         <v>261.653</v>
       </c>
       <c r="G9">
-        <v>2742.8394</v>
+        <v>2753.7594</v>
       </c>
       <c r="H9">
-        <v>16848.8706</v>
+        <v>16915.9506</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>19591.71</v>
+        <v>19669.71</v>
       </c>
       <c r="K9">
-        <v>74.87668782700754</v>
+        <v>75.17479256878387</v>
       </c>
       <c r="L9">
         <v>9</v>
@@ -49564,7 +49564,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15087.9</v>
+        <v>15165.9</v>
       </c>
       <c r="O2">
         <v>139.1</v>
@@ -49585,7 +49585,7 @@
         <v>100</v>
       </c>
       <c r="U2">
-        <v>32971.4</v>
+        <v>33049.4</v>
       </c>
       <c r="V2">
         <v>2</v>
